--- a/preset_clear.XLSX
+++ b/preset_clear.XLSX
@@ -883,8 +883,10 @@
           <t>ele_skill</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>0</v>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -934,7 +936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X263"/>
+  <dimension ref="A1:X313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -991,57 +993,57 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>存档名</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O1" s="10" t="inlineStr">
         <is>
-          <t>存档1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P1" s="10" t="inlineStr">
         <is>
-          <t>存档2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q1" s="10" t="inlineStr">
         <is>
-          <t>存档3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R1" s="10" t="inlineStr">
         <is>
-          <t>存档4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S1" s="10" t="inlineStr">
         <is>
-          <t>存档5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T1" s="10" t="inlineStr">
         <is>
-          <t>存档6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U1" s="10" t="inlineStr">
         <is>
-          <t>存档7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V1" s="10" t="inlineStr">
         <is>
-          <t>存档8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W1" s="10" t="inlineStr">
         <is>
-          <t>存档9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X1" s="10" t="inlineStr">
         <is>
-          <t>存档10</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1086,57 +1088,57 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>选择武器</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1181,57 +1183,57 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>职业选择</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1276,57 +1278,57 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>输出时间</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>20秒(觉醒占比↑)</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1371,57 +1373,57 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>称号选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>使徒降临</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1466,57 +1468,57 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>宠物选择</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>普通宠物</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1561,57 +1563,57 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>冷却补正</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>X(纯伤害)</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1656,57 +1658,57 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>选择速度</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>中速</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1749,6 +1751,61 @@
       <c r="L9" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17.25" r="10">
       <c r="A10" s="14" t="inlineStr">
@@ -1789,6 +1846,61 @@
       <c r="L10" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17.25" r="11">
       <c r="A11" s="14" t="inlineStr">
@@ -1829,6 +1941,61 @@
       <c r="L11" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17.25" r="12">
       <c r="A12" s="14" t="inlineStr">
@@ -1869,6 +2036,61 @@
       <c r="L12" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17.25" r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -1909,6 +2131,61 @@
       <c r="L13" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17.25" r="14">
       <c r="A14" s="14" t="inlineStr">
@@ -11908,6 +12185,707 @@
       </c>
       <c r="L263" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>存档名</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>存档1</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>存档2</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>存档3</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>存档4</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>存档5</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>存档6</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>存档7</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>存档8</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>存档9</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>存档10</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>武器</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>输出时间</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>称号选择</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>宠物选择</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>冷却补正</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>选择速度</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>是否拥有百变怪</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>材料够升级的工作服数目</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>跨界来源账户列表</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>最大跨界数目</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>是否默认将普雷传说装备加入备选池</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/preset_clear.XLSX
+++ b/preset_clear.XLSX
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="28680" yWindow="-120"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="custom" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="one" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="custom" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="one" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="0_);[Red]\(0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -122,54 +122,54 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="41">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="41">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="1" xfId="2">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="1" xfId="2">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="쉼표 [0] 2" xfId="1"/>
     <cellStyle name="표준 2" xfId="2"/>
     <cellStyle name="표준 3" xfId="3"/>
@@ -188,7 +188,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -467,9 +467,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="19.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="9"/>
-    <col customWidth="1" max="7" min="7" width="15.75"/>
+    <col width="19.875" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" style="1" min="2" max="2"/>
+    <col width="15.75" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,7 +498,7 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="H2" s="8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -567,7 +567,7 @@
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="H6" s="7" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C14" s="7" t="n"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" s="7" t="n"/>
@@ -867,7 +867,7 @@
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" s="7" t="n"/>
@@ -913,19 +913,61 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
+    <dataValidation sqref="B13" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"10,11,12,13"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
+    <dataValidation sqref="B12" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"英雄↑,传说↓"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B1" type="list">
+    <dataValidation sqref="B1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"火,冰,光,暗"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -936,26 +978,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X313"/>
+  <dimension ref="A1:BJ1313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="12.625"/>
-    <col customWidth="1" max="2" min="2" style="5" width="21.375"/>
-    <col customWidth="1" max="3" min="3" style="4" width="4.25"/>
-    <col customWidth="1" max="12" min="4" style="3" width="4.25"/>
-    <col customWidth="1" max="26" min="13" style="5" width="12.625"/>
-    <col customWidth="1" max="16384" min="27" style="5" width="12.625"/>
+    <col width="12.625" customWidth="1" style="13" min="1" max="1"/>
+    <col width="21.375" customWidth="1" style="5" min="2" max="2"/>
+    <col width="4.25" customWidth="1" style="4" min="3" max="3"/>
+    <col width="4.25" customWidth="1" style="3" min="4" max="12"/>
+    <col width="12.625" customWidth="1" style="5" min="13" max="26"/>
+    <col width="12.625" customWidth="1" style="5" min="27" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="17.25" r="1">
+    <row r="1" ht="17.25" customHeight="1">
       <c r="A1" s="14" t="inlineStr">
         <is>
-          <t>111001</t>
+          <t>33430140</t>
         </is>
       </c>
       <c r="B1" s="2" t="n">
@@ -1047,10 +1089,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="2">
+    <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>111002</t>
+          <t>21420110</t>
         </is>
       </c>
       <c r="B2" s="6" t="n">
@@ -1142,10 +1184,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="3">
+    <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="14" t="inlineStr">
         <is>
-          <t>111003</t>
+          <t>15391250</t>
         </is>
       </c>
       <c r="B3" s="6" t="n">
@@ -1237,10 +1279,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="4">
+    <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>111004</t>
+          <t>33430100</t>
         </is>
       </c>
       <c r="B4" s="6" t="n">
@@ -1332,10 +1374,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="5">
+    <row r="5" ht="17.25" customHeight="1">
       <c r="A5" s="14" t="inlineStr">
         <is>
-          <t>111005</t>
+          <t>11440</t>
         </is>
       </c>
       <c r="B5" s="6" t="n">
@@ -1427,10 +1469,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="6">
+    <row r="6" ht="17.25" customHeight="1">
       <c r="A6" s="14" t="inlineStr">
         <is>
-          <t>111006</t>
+          <t>32390650</t>
         </is>
       </c>
       <c r="B6" s="6" t="n">
@@ -1522,10 +1564,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="7">
+    <row r="7" ht="17.25" customHeight="1">
       <c r="A7" s="14" t="inlineStr">
         <is>
-          <t>111007</t>
+          <t>33460</t>
         </is>
       </c>
       <c r="B7" s="6" t="n">
@@ -1617,10 +1659,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="8">
+    <row r="8" ht="17.25" customHeight="1">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>111008</t>
+          <t>22420</t>
         </is>
       </c>
       <c r="B8" s="6" t="n">
@@ -1712,10 +1754,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="9">
+    <row r="9" ht="17.25" customHeight="1">
       <c r="A9" s="14" t="inlineStr">
         <is>
-          <t>111009</t>
+          <t>14470</t>
         </is>
       </c>
       <c r="B9" s="6" t="n">
@@ -1807,10 +1849,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="10">
+    <row r="10" ht="17.25" customHeight="1">
       <c r="A10" s="14" t="inlineStr">
         <is>
-          <t>111010</t>
+          <t>11410110</t>
         </is>
       </c>
       <c r="B10" s="6" t="n">
@@ -1902,10 +1944,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="11">
+    <row r="11" ht="17.25" customHeight="1">
       <c r="A11" s="14" t="inlineStr">
         <is>
-          <t>111011</t>
+          <t>31490</t>
         </is>
       </c>
       <c r="B11" s="6" t="n">
@@ -1997,10 +2039,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="12">
+    <row r="12" ht="17.25" customHeight="1">
       <c r="A12" s="14" t="inlineStr">
         <is>
-          <t>111012</t>
+          <t>11470</t>
         </is>
       </c>
       <c r="B12" s="6" t="n">
@@ -2092,10 +2134,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="13">
+    <row r="13" ht="17.25" customHeight="1">
       <c r="A13" s="14" t="inlineStr">
         <is>
-          <t>111013</t>
+          <t>22450</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
@@ -2187,10 +2229,10 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="14">
+    <row r="14" ht="17.25" customHeight="1">
       <c r="A14" s="14" t="inlineStr">
         <is>
-          <t>111014</t>
+          <t>21450</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
@@ -2227,10 +2269,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="15">
+    <row r="15" ht="17.25" customHeight="1">
       <c r="A15" s="14" t="inlineStr">
         <is>
-          <t>111015</t>
+          <t>21420100</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
@@ -2267,10 +2309,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="16">
+    <row r="16" ht="17.25" customHeight="1">
       <c r="A16" s="14" t="inlineStr">
         <is>
-          <t>111016</t>
+          <t>31430</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
@@ -2307,10 +2349,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="17">
+    <row r="17" ht="17.25" customHeight="1">
       <c r="A17" s="14" t="inlineStr">
         <is>
-          <t>111017</t>
+          <t>22400550</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
@@ -2347,10 +2389,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="18">
+    <row r="18" ht="17.25" customHeight="1">
       <c r="A18" s="14" t="inlineStr">
         <is>
-          <t>111018</t>
+          <t>31400850</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
@@ -2387,10 +2429,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="19">
+    <row r="19" ht="17.25" customHeight="1">
       <c r="A19" s="14" t="inlineStr">
         <is>
-          <t>111019</t>
+          <t>15470</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
@@ -2427,10 +2469,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="20">
+    <row r="20" ht="17.25" customHeight="1">
       <c r="A20" s="14" t="inlineStr">
         <is>
-          <t>111020</t>
+          <t>33430110</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
@@ -2467,10 +2509,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="21">
+    <row r="21" ht="17.25" customHeight="1">
       <c r="A21" s="14" t="inlineStr">
         <is>
-          <t>111021</t>
+          <t>22400250</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
@@ -2507,10 +2549,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="22">
+    <row r="22" ht="17.25" customHeight="1">
       <c r="A22" s="14" t="inlineStr">
         <is>
-          <t>111022</t>
+          <t>32401440</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
@@ -2547,10 +2589,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="23">
+    <row r="23" ht="17.25" customHeight="1">
       <c r="A23" s="14" t="inlineStr">
         <is>
-          <t>111023</t>
+          <t>13410</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
@@ -2587,10 +2629,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="24">
+    <row r="24" ht="17.25" customHeight="1">
       <c r="A24" s="14" t="inlineStr">
         <is>
-          <t>111024</t>
+          <t>11410100</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
@@ -2627,10 +2669,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="25">
+    <row r="25" ht="17.25" customHeight="1">
       <c r="A25" s="14" t="inlineStr">
         <is>
-          <t>111025</t>
+          <t>33430150</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
@@ -2667,10 +2709,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="26">
+    <row r="26" ht="17.25" customHeight="1">
       <c r="A26" s="14" t="inlineStr">
         <is>
-          <t>111026</t>
+          <t>33490</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
@@ -2707,10 +2749,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="27">
+    <row r="27" ht="17.25" customHeight="1">
       <c r="A27" s="14" t="inlineStr">
         <is>
-          <t>111027</t>
+          <t>11410150</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
@@ -2747,10 +2789,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="28">
+    <row r="28" ht="17.25" customHeight="1">
       <c r="A28" s="14" t="inlineStr">
         <is>
-          <t>111028</t>
+          <t>23420</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
@@ -2787,10 +2829,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="29">
+    <row r="29" ht="17.25" customHeight="1">
       <c r="A29" s="14" t="inlineStr">
         <is>
-          <t>111029</t>
+          <t>11410120</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
@@ -2827,10 +2869,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="30">
+    <row r="30" ht="17.25" customHeight="1">
       <c r="A30" s="14" t="inlineStr">
         <is>
-          <t>111030</t>
+          <t>12390950</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
@@ -2867,10 +2909,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="31">
+    <row r="31" ht="17.25" customHeight="1">
       <c r="A31" s="14" t="inlineStr">
         <is>
-          <t>111031</t>
+          <t>22400450</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
@@ -2907,10 +2949,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="32">
+    <row r="32" ht="17.25" customHeight="1">
       <c r="A32" s="14" t="inlineStr">
         <is>
-          <t>111032</t>
+          <t>31400950</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
@@ -2947,10 +2989,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="33">
+    <row r="33" ht="17.25" customHeight="1">
       <c r="A33" s="14" t="inlineStr">
         <is>
-          <t>111033</t>
+          <t>22400150</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
@@ -2987,10 +3029,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="34">
+    <row r="34" ht="17.25" customHeight="1">
       <c r="A34" s="14" t="inlineStr">
         <is>
-          <t>111034</t>
+          <t>22400350</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
@@ -3027,10 +3069,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="35">
+    <row r="35" ht="17.25" customHeight="1">
       <c r="A35" s="14" t="inlineStr">
         <is>
-          <t>111035</t>
+          <t>12470</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
@@ -3067,10 +3109,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="36">
+    <row r="36" ht="17.25" customHeight="1">
       <c r="A36" s="14" t="inlineStr">
         <is>
-          <t>111036</t>
+          <t>31401150</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
@@ -3107,10 +3149,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="37">
+    <row r="37" ht="17.25" customHeight="1">
       <c r="A37" s="14" t="inlineStr">
         <is>
-          <t>111037</t>
+          <t>32430</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
@@ -3147,10 +3189,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="38">
+    <row r="38" ht="17.25" customHeight="1">
       <c r="A38" s="14" t="inlineStr">
         <is>
-          <t>111038</t>
+          <t>11390850</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
@@ -3187,10 +3229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="39">
+    <row r="39" ht="17.25" customHeight="1">
       <c r="A39" s="14" t="inlineStr">
         <is>
-          <t>111039</t>
+          <t>31400750</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
@@ -3227,10 +3269,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="40">
+    <row r="40" ht="17.25" customHeight="1">
       <c r="A40" s="14" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>13391050</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
@@ -3267,10 +3309,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="41">
+    <row r="41" ht="17.25" customHeight="1">
       <c r="A41" s="14" t="inlineStr">
         <is>
-          <t>111041</t>
+          <t>14440</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
@@ -3307,10 +3349,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="42">
+    <row r="42" ht="17.25" customHeight="1">
       <c r="A42" s="14" t="inlineStr">
         <is>
-          <t>111042</t>
+          <t>23480</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
@@ -3347,10 +3389,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="43">
+    <row r="43" ht="17.25" customHeight="1">
       <c r="A43" s="14" t="inlineStr">
         <is>
-          <t>111043</t>
+          <t>14391150</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
@@ -3387,10 +3429,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="44">
+    <row r="44" ht="17.25" customHeight="1">
       <c r="A44" s="14" t="inlineStr">
         <is>
-          <t>111044</t>
+          <t>33430120</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
@@ -3427,10 +3469,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="45">
+    <row r="45" ht="17.25" customHeight="1">
       <c r="A45" s="14" t="inlineStr">
         <is>
-          <t>111045</t>
+          <t>13470</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
@@ -3467,10 +3509,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="46">
+    <row r="46" ht="17.25" customHeight="1">
       <c r="A46" s="14" t="inlineStr">
         <is>
-          <t>111046</t>
+          <t>31401050</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
@@ -3507,10 +3549,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="47">
+    <row r="47" ht="17.25" customHeight="1">
       <c r="A47" s="14" t="inlineStr">
         <is>
-          <t>111047</t>
+          <t>21420150</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
@@ -3547,10 +3589,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="48">
+    <row r="48" ht="17.25" customHeight="1">
       <c r="A48" s="14" t="inlineStr">
         <is>
-          <t>111048</t>
+          <t>12410</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
@@ -3587,10 +3629,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="49">
+    <row r="49" ht="17.25" customHeight="1">
       <c r="A49" s="14" t="inlineStr">
         <is>
-          <t>111049</t>
+          <t>22480</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
@@ -3627,10 +3669,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="50">
+    <row r="50" ht="17.25" customHeight="1">
       <c r="A50" s="14" t="inlineStr">
         <is>
-          <t>111050</t>
+          <t>32490</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
@@ -3667,10 +3709,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="51">
+    <row r="51" ht="17.25" customHeight="1">
       <c r="A51" s="14" t="inlineStr">
         <is>
-          <t>111051</t>
+          <t>21420130</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
@@ -3707,10 +3749,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="52">
+    <row r="52" ht="17.25" customHeight="1">
       <c r="A52" s="14" t="inlineStr">
         <is>
-          <t>111052</t>
+          <t>12440</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
@@ -3747,10 +3789,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="53">
+    <row r="53" ht="17.25" customHeight="1">
       <c r="A53" s="14" t="inlineStr">
         <is>
-          <t>111053</t>
+          <t>21420140</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
@@ -3787,10 +3829,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="54">
+    <row r="54" ht="17.25" customHeight="1">
       <c r="A54" s="14" t="inlineStr">
         <is>
-          <t>111054</t>
+          <t>32401340</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
@@ -3827,10 +3869,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="55">
+    <row r="55" ht="17.25" customHeight="1">
       <c r="A55" s="14" t="inlineStr">
         <is>
-          <t>111055</t>
+          <t>13440</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
@@ -3867,10 +3909,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="56">
+    <row r="56" ht="17.25" customHeight="1">
       <c r="A56" s="14" t="inlineStr">
         <is>
-          <t>111056</t>
+          <t>21400640</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
@@ -3907,10 +3949,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="57">
+    <row r="57" ht="17.25" customHeight="1">
       <c r="A57" s="14" t="inlineStr">
         <is>
-          <t>111057</t>
+          <t>31460</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
@@ -3947,10 +3989,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="58">
+    <row r="58" ht="17.25" customHeight="1">
       <c r="A58" s="14" t="inlineStr">
         <is>
-          <t>111058</t>
+          <t>15410</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
@@ -3987,10 +4029,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="59">
+    <row r="59" ht="17.25" customHeight="1">
       <c r="A59" s="14" t="inlineStr">
         <is>
-          <t>111059</t>
+          <t>31390540</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
@@ -4027,10 +4069,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="60">
+    <row r="60" ht="17.25" customHeight="1">
       <c r="A60" s="14" t="inlineStr">
         <is>
-          <t>111060</t>
+          <t>32401240</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
@@ -4067,10 +4109,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="61">
+    <row r="61" ht="17.25" customHeight="1">
       <c r="A61" s="14" t="inlineStr">
         <is>
-          <t>111061</t>
+          <t>21420120</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
@@ -4107,10 +4149,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="62">
+    <row r="62" ht="17.25" customHeight="1">
       <c r="A62" s="14" t="inlineStr">
         <is>
-          <t>111062</t>
+          <t>21480</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
@@ -4147,10 +4189,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="63">
+    <row r="63" ht="17.25" customHeight="1">
       <c r="A63" s="14" t="inlineStr">
         <is>
-          <t>111063</t>
+          <t>15440</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
@@ -4187,10 +4229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="64">
+    <row r="64" ht="17.25" customHeight="1">
       <c r="A64" s="14" t="inlineStr">
         <is>
-          <t>111064</t>
+          <t>14410</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
@@ -4227,10 +4269,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="65">
+    <row r="65" ht="17.25" customHeight="1">
       <c r="A65" s="14" t="inlineStr">
         <is>
-          <t>111065</t>
+          <t>33430130</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
@@ -4267,10 +4309,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="66">
+    <row r="66" ht="17.25" customHeight="1">
       <c r="A66" s="14" t="inlineStr">
         <is>
-          <t>111066</t>
+          <t>11410130</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
@@ -4307,10 +4349,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="67">
+    <row r="67" ht="17.25" customHeight="1">
       <c r="A67" s="14" t="inlineStr">
         <is>
-          <t>111067</t>
+          <t>11410140</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
@@ -4347,10 +4389,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="68">
+    <row r="68" ht="17.25" customHeight="1">
       <c r="A68" s="14" t="inlineStr">
         <is>
-          <t>111068</t>
+          <t>23450</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
@@ -4387,10 +4429,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="69">
+    <row r="69" ht="17.25" customHeight="1">
       <c r="A69" s="14" t="inlineStr">
         <is>
-          <t>111069</t>
+          <t>21390340</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
@@ -4427,10 +4469,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="70">
+    <row r="70" ht="17.25" customHeight="1">
       <c r="A70" s="14" t="inlineStr">
         <is>
-          <t>111070</t>
+          <t>32460</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
@@ -4467,10 +4509,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="71">
+    <row r="71" ht="17.25" customHeight="1">
       <c r="A71" s="14" t="inlineStr">
         <is>
-          <t>111071</t>
+          <t>23620</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
@@ -4507,10 +4549,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="72">
+    <row r="72" ht="17.25" customHeight="1">
       <c r="A72" s="14" t="inlineStr">
         <is>
-          <t>111072</t>
+          <t>15510</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
@@ -4547,10 +4589,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="73">
+    <row r="73" ht="17.25" customHeight="1">
       <c r="A73" s="14" t="inlineStr">
         <is>
-          <t>111073</t>
+          <t>15600</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
@@ -4587,10 +4629,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="74">
+    <row r="74" ht="17.25" customHeight="1">
       <c r="A74" s="14" t="inlineStr">
         <is>
-          <t>111074</t>
+          <t>14540</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
@@ -4627,10 +4669,10 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="75">
+    <row r="75" ht="17.25" customHeight="1">
       <c r="A75" s="14" t="inlineStr">
         <is>
-          <t>111075</t>
+          <t>15580</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
@@ -4667,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="76">
+    <row r="76" ht="17.25" customHeight="1">
       <c r="A76" s="14" t="inlineStr">
         <is>
           <t>11010</t>
@@ -4707,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="77">
+    <row r="77" ht="17.25" customHeight="1">
       <c r="A77" s="13" t="inlineStr">
         <is>
           <t>11011</t>
@@ -4747,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="78">
+    <row r="78" ht="17.25" customHeight="1">
       <c r="A78" s="13" t="inlineStr">
         <is>
           <t>11020</t>
@@ -4787,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="79">
+    <row r="79" ht="17.25" customHeight="1">
       <c r="A79" s="13" t="inlineStr">
         <is>
           <t>11021</t>
@@ -4827,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="80">
+    <row r="80" ht="17.25" customHeight="1">
       <c r="A80" s="13" t="inlineStr">
         <is>
           <t>11030</t>
@@ -4867,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="81">
+    <row r="81" ht="17.25" customHeight="1">
       <c r="A81" s="13" t="inlineStr">
         <is>
           <t>11031</t>
@@ -4907,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="82">
+    <row r="82" ht="17.25" customHeight="1">
       <c r="A82" s="13" t="inlineStr">
         <is>
           <t>11040</t>
@@ -4947,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="83">
+    <row r="83" ht="17.25" customHeight="1">
       <c r="A83" s="13" t="inlineStr">
         <is>
           <t>11041</t>
@@ -4987,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="84">
+    <row r="84" ht="17.25" customHeight="1">
       <c r="A84" s="13" t="inlineStr">
         <is>
           <t>11050</t>
@@ -5027,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="85">
+    <row r="85" ht="17.25" customHeight="1">
       <c r="A85" s="13" t="inlineStr">
         <is>
           <t>11051</t>
@@ -5067,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="86">
+    <row r="86" ht="17.25" customHeight="1">
       <c r="A86" s="13" t="inlineStr">
         <is>
           <t>11060</t>
@@ -5107,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="87">
+    <row r="87" ht="17.25" customHeight="1">
       <c r="A87" s="13" t="inlineStr">
         <is>
           <t>11061</t>
@@ -5147,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="88">
+    <row r="88" ht="17.25" customHeight="1">
       <c r="A88" s="13" t="inlineStr">
         <is>
           <t>11070</t>
@@ -5187,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="89">
+    <row r="89" ht="17.25" customHeight="1">
       <c r="A89" s="13" t="inlineStr">
         <is>
           <t>11071</t>
@@ -5227,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="90">
+    <row r="90" ht="17.25" customHeight="1">
       <c r="A90" s="13" t="inlineStr">
         <is>
           <t>11080</t>
@@ -5267,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="91">
+    <row r="91" ht="17.25" customHeight="1">
       <c r="A91" s="13" t="inlineStr">
         <is>
           <t>11081</t>
@@ -5307,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="92">
+    <row r="92" ht="17.25" customHeight="1">
       <c r="A92" s="13" t="inlineStr">
         <is>
           <t>11090</t>
@@ -5347,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="93">
+    <row r="93" ht="17.25" customHeight="1">
       <c r="A93" s="13" t="inlineStr">
         <is>
           <t>11091</t>
@@ -5387,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="94">
+    <row r="94" ht="17.25" customHeight="1">
       <c r="A94" s="13" t="inlineStr">
         <is>
           <t>11100</t>
@@ -5427,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="95">
+    <row r="95" ht="17.25" customHeight="1">
       <c r="A95" s="13" t="inlineStr">
         <is>
           <t>11101</t>
@@ -5467,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="96">
+    <row r="96" ht="17.25" customHeight="1">
       <c r="A96" s="13" t="inlineStr">
         <is>
           <t>11110</t>
@@ -5507,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="97">
+    <row r="97" ht="17.25" customHeight="1">
       <c r="A97" s="13" t="inlineStr">
         <is>
           <t>11111</t>
@@ -5547,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="98">
+    <row r="98" ht="17.25" customHeight="1">
       <c r="A98" s="13" t="inlineStr">
         <is>
           <t>11120</t>
@@ -5587,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="99">
+    <row r="99" ht="17.25" customHeight="1">
       <c r="A99" s="13" t="inlineStr">
         <is>
           <t>11121</t>
@@ -5627,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="100">
+    <row r="100" ht="17.25" customHeight="1">
       <c r="A100" s="13" t="inlineStr">
         <is>
           <t>11130</t>
@@ -5667,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="101">
+    <row r="101" ht="17.25" customHeight="1">
       <c r="A101" s="13" t="inlineStr">
         <is>
           <t>11131</t>
@@ -5707,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="102">
+    <row r="102" ht="17.25" customHeight="1">
       <c r="A102" s="13" t="inlineStr">
         <is>
           <t>11140</t>
@@ -5747,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="103">
+    <row r="103" ht="17.25" customHeight="1">
       <c r="A103" s="13" t="inlineStr">
         <is>
           <t>11141</t>
@@ -5787,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="104">
+    <row r="104" ht="17.25" customHeight="1">
       <c r="A104" s="13" t="inlineStr">
         <is>
           <t>11150</t>
@@ -5827,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="105">
+    <row r="105" ht="17.25" customHeight="1">
       <c r="A105" s="13" t="inlineStr">
         <is>
           <t>11151</t>
@@ -5867,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="106">
+    <row r="106" ht="17.25" customHeight="1">
       <c r="A106" s="13" t="inlineStr">
         <is>
           <t>11280</t>
@@ -5907,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="107">
+    <row r="107" ht="17.25" customHeight="1">
       <c r="A107" s="13" t="inlineStr">
         <is>
           <t>11281</t>
@@ -5947,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="108">
+    <row r="108" ht="17.25" customHeight="1">
       <c r="A108" s="13" t="inlineStr">
         <is>
           <t>11290</t>
@@ -5987,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="109">
+    <row r="109" ht="17.25" customHeight="1">
       <c r="A109" s="13" t="inlineStr">
         <is>
           <t>11291</t>
@@ -6027,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="110">
+    <row r="110" ht="17.25" customHeight="1">
       <c r="A110" s="13" t="inlineStr">
         <is>
           <t>11300</t>
@@ -6067,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="111">
+    <row r="111" ht="17.25" customHeight="1">
       <c r="A111" s="13" t="inlineStr">
         <is>
           <t>11301</t>
@@ -6107,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="112">
+    <row r="112" ht="17.25" customHeight="1">
       <c r="A112" s="13" t="inlineStr">
         <is>
           <t>11310</t>
@@ -6147,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="113">
+    <row r="113" ht="17.25" customHeight="1">
       <c r="A113" s="13" t="inlineStr">
         <is>
           <t>11311</t>
@@ -6187,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="114">
+    <row r="114" ht="17.25" customHeight="1">
       <c r="A114" s="13" t="inlineStr">
         <is>
           <t>11360</t>
@@ -6227,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="115">
+    <row r="115" ht="17.25" customHeight="1">
       <c r="A115" s="13" t="inlineStr">
         <is>
           <t>12010</t>
@@ -6267,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="116">
+    <row r="116" ht="17.25" customHeight="1">
       <c r="A116" s="13" t="inlineStr">
         <is>
           <t>12020</t>
@@ -6307,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="117">
+    <row r="117" ht="17.25" customHeight="1">
       <c r="A117" s="13" t="inlineStr">
         <is>
           <t>12030</t>
@@ -6347,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="118">
+    <row r="118" ht="17.25" customHeight="1">
       <c r="A118" s="13" t="inlineStr">
         <is>
           <t>12040</t>
@@ -6387,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="119">
+    <row r="119" ht="17.25" customHeight="1">
       <c r="A119" s="13" t="inlineStr">
         <is>
           <t>12050</t>
@@ -6427,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="120">
+    <row r="120" ht="17.25" customHeight="1">
       <c r="A120" s="13" t="inlineStr">
         <is>
           <t>12060</t>
@@ -6467,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="121">
+    <row r="121" ht="17.25" customHeight="1">
       <c r="A121" s="13" t="inlineStr">
         <is>
           <t>12070</t>
@@ -6507,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="122">
+    <row r="122" ht="17.25" customHeight="1">
       <c r="A122" s="13" t="inlineStr">
         <is>
           <t>12080</t>
@@ -6547,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="123">
+    <row r="123" ht="17.25" customHeight="1">
       <c r="A123" s="13" t="inlineStr">
         <is>
           <t>12090</t>
@@ -6587,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="124">
+    <row r="124" ht="17.25" customHeight="1">
       <c r="A124" s="13" t="inlineStr">
         <is>
           <t>12100</t>
@@ -6627,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="125">
+    <row r="125" ht="17.25" customHeight="1">
       <c r="A125" s="13" t="inlineStr">
         <is>
           <t>12110</t>
@@ -6667,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="126">
+    <row r="126" ht="17.25" customHeight="1">
       <c r="A126" s="13" t="inlineStr">
         <is>
           <t>12120</t>
@@ -6707,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="127">
+    <row r="127" ht="17.25" customHeight="1">
       <c r="A127" s="13" t="inlineStr">
         <is>
           <t>12130</t>
@@ -6747,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="128">
+    <row r="128" ht="17.25" customHeight="1">
       <c r="A128" s="13" t="inlineStr">
         <is>
           <t>12140</t>
@@ -6787,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="129">
+    <row r="129" ht="17.25" customHeight="1">
       <c r="A129" s="13" t="inlineStr">
         <is>
           <t>12150</t>
@@ -6827,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="130">
+    <row r="130" ht="17.25" customHeight="1">
       <c r="A130" s="13" t="inlineStr">
         <is>
           <t>12240</t>
@@ -6867,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="131">
+    <row r="131" ht="17.25" customHeight="1">
       <c r="A131" s="13" t="inlineStr">
         <is>
           <t>12250</t>
@@ -6907,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="132">
+    <row r="132" ht="17.25" customHeight="1">
       <c r="A132" s="13" t="inlineStr">
         <is>
           <t>12260</t>
@@ -6947,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="133">
+    <row r="133" ht="17.25" customHeight="1">
       <c r="A133" s="13" t="inlineStr">
         <is>
           <t>12270</t>
@@ -6987,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="134">
+    <row r="134" ht="17.25" customHeight="1">
       <c r="A134" s="13" t="inlineStr">
         <is>
           <t>12360</t>
@@ -7027,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="135">
+    <row r="135" ht="17.25" customHeight="1">
       <c r="A135" s="13" t="inlineStr">
         <is>
           <t>13010</t>
@@ -7067,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="136">
+    <row r="136" ht="17.25" customHeight="1">
       <c r="A136" s="13" t="inlineStr">
         <is>
           <t>13020</t>
@@ -7107,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="137">
+    <row r="137" ht="17.25" customHeight="1">
       <c r="A137" s="13" t="inlineStr">
         <is>
           <t>13030</t>
@@ -7147,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="138">
+    <row r="138" ht="17.25" customHeight="1">
       <c r="A138" s="13" t="inlineStr">
         <is>
           <t>13040</t>
@@ -7187,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="139">
+    <row r="139" ht="17.25" customHeight="1">
       <c r="A139" s="13" t="inlineStr">
         <is>
           <t>13050</t>
@@ -7227,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="140">
+    <row r="140" ht="17.25" customHeight="1">
       <c r="A140" s="13" t="inlineStr">
         <is>
           <t>13060</t>
@@ -7267,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="141">
+    <row r="141" ht="17.25" customHeight="1">
       <c r="A141" s="13" t="inlineStr">
         <is>
           <t>13070</t>
@@ -7307,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="142">
+    <row r="142" ht="17.25" customHeight="1">
       <c r="A142" s="13" t="inlineStr">
         <is>
           <t>13080</t>
@@ -7347,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="143">
+    <row r="143" ht="17.25" customHeight="1">
       <c r="A143" s="13" t="inlineStr">
         <is>
           <t>13090</t>
@@ -7387,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="144">
+    <row r="144" ht="17.25" customHeight="1">
       <c r="A144" s="13" t="inlineStr">
         <is>
           <t>13100</t>
@@ -7427,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="145">
+    <row r="145" ht="17.25" customHeight="1">
       <c r="A145" s="13" t="inlineStr">
         <is>
           <t>13110</t>
@@ -7467,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="146">
+    <row r="146" ht="17.25" customHeight="1">
       <c r="A146" s="13" t="inlineStr">
         <is>
           <t>13120</t>
@@ -7507,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="147">
+    <row r="147" ht="17.25" customHeight="1">
       <c r="A147" s="13" t="inlineStr">
         <is>
           <t>13130</t>
@@ -7547,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="148">
+    <row r="148" ht="17.25" customHeight="1">
       <c r="A148" s="13" t="inlineStr">
         <is>
           <t>13140</t>
@@ -7587,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="149">
+    <row r="149" ht="17.25" customHeight="1">
       <c r="A149" s="13" t="inlineStr">
         <is>
           <t>13150</t>
@@ -7627,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="150">
+    <row r="150" ht="17.25" customHeight="1">
       <c r="A150" s="13" t="inlineStr">
         <is>
           <t>13360</t>
@@ -7667,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="151">
+    <row r="151" ht="17.25" customHeight="1">
       <c r="A151" s="13" t="inlineStr">
         <is>
           <t>14010</t>
@@ -7707,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="152">
+    <row r="152" ht="17.25" customHeight="1">
       <c r="A152" s="13" t="inlineStr">
         <is>
           <t>14020</t>
@@ -7747,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="153">
+    <row r="153" ht="17.25" customHeight="1">
       <c r="A153" s="13" t="inlineStr">
         <is>
           <t>14030</t>
@@ -7787,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="154">
+    <row r="154" ht="17.25" customHeight="1">
       <c r="A154" s="13" t="inlineStr">
         <is>
           <t>14040</t>
@@ -7827,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="155">
+    <row r="155" ht="17.25" customHeight="1">
       <c r="A155" s="13" t="inlineStr">
         <is>
           <t>14050</t>
@@ -7867,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="156">
+    <row r="156" ht="17.25" customHeight="1">
       <c r="A156" s="13" t="inlineStr">
         <is>
           <t>14060</t>
@@ -7907,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="157">
+    <row r="157" ht="17.25" customHeight="1">
       <c r="A157" s="13" t="inlineStr">
         <is>
           <t>14070</t>
@@ -7947,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="158">
+    <row r="158" ht="17.25" customHeight="1">
       <c r="A158" s="13" t="inlineStr">
         <is>
           <t>14080</t>
@@ -7987,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="159">
+    <row r="159" ht="17.25" customHeight="1">
       <c r="A159" s="13" t="inlineStr">
         <is>
           <t>14090</t>
@@ -8027,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="160">
+    <row r="160" ht="17.25" customHeight="1">
       <c r="A160" s="13" t="inlineStr">
         <is>
           <t>14100</t>
@@ -8067,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="161">
+    <row r="161" ht="17.25" customHeight="1">
       <c r="A161" s="13" t="inlineStr">
         <is>
           <t>14110</t>
@@ -8107,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="162">
+    <row r="162" ht="17.25" customHeight="1">
       <c r="A162" s="13" t="inlineStr">
         <is>
           <t>14120</t>
@@ -8147,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="163">
+    <row r="163" ht="17.25" customHeight="1">
       <c r="A163" s="13" t="inlineStr">
         <is>
           <t>14130</t>
@@ -8187,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="164">
+    <row r="164" ht="17.25" customHeight="1">
       <c r="A164" s="13" t="inlineStr">
         <is>
           <t>14140</t>
@@ -8227,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="165">
+    <row r="165" ht="17.25" customHeight="1">
       <c r="A165" s="13" t="inlineStr">
         <is>
           <t>14150</t>
@@ -8267,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="166">
+    <row r="166" ht="17.25" customHeight="1">
       <c r="A166" s="13" t="inlineStr">
         <is>
           <t>14360</t>
@@ -8307,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="167">
+    <row r="167" ht="17.25" customHeight="1">
       <c r="A167" s="13" t="inlineStr">
         <is>
           <t>15010</t>
@@ -8347,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="168">
+    <row r="168" ht="17.25" customHeight="1">
       <c r="A168" s="13" t="inlineStr">
         <is>
           <t>15020</t>
@@ -8387,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="169">
+    <row r="169" ht="17.25" customHeight="1">
       <c r="A169" s="13" t="inlineStr">
         <is>
           <t>15030</t>
@@ -8427,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="170">
+    <row r="170" ht="17.25" customHeight="1">
       <c r="A170" s="13" t="inlineStr">
         <is>
           <t>15040</t>
@@ -8467,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="171">
+    <row r="171" ht="17.25" customHeight="1">
       <c r="A171" s="13" t="inlineStr">
         <is>
           <t>15050</t>
@@ -8507,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="172">
+    <row r="172" ht="17.25" customHeight="1">
       <c r="A172" s="13" t="inlineStr">
         <is>
           <t>15060</t>
@@ -8547,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="173">
+    <row r="173" ht="17.25" customHeight="1">
       <c r="A173" s="13" t="inlineStr">
         <is>
           <t>15070</t>
@@ -8587,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="174">
+    <row r="174" ht="17.25" customHeight="1">
       <c r="A174" s="13" t="inlineStr">
         <is>
           <t>15080</t>
@@ -8627,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="175">
+    <row r="175" ht="17.25" customHeight="1">
       <c r="A175" s="13" t="inlineStr">
         <is>
           <t>15090</t>
@@ -8667,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="176">
+    <row r="176" ht="17.25" customHeight="1">
       <c r="A176" s="13" t="inlineStr">
         <is>
           <t>15100</t>
@@ -8707,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="177">
+    <row r="177" ht="17.25" customHeight="1">
       <c r="A177" s="13" t="inlineStr">
         <is>
           <t>15110</t>
@@ -8747,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="178">
+    <row r="178" ht="17.25" customHeight="1">
       <c r="A178" s="13" t="inlineStr">
         <is>
           <t>15120</t>
@@ -8787,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="179">
+    <row r="179" ht="17.25" customHeight="1">
       <c r="A179" s="13" t="inlineStr">
         <is>
           <t>15130</t>
@@ -8827,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="180">
+    <row r="180" ht="17.25" customHeight="1">
       <c r="A180" s="13" t="inlineStr">
         <is>
           <t>15140</t>
@@ -8867,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="181">
+    <row r="181" ht="17.25" customHeight="1">
       <c r="A181" s="13" t="inlineStr">
         <is>
           <t>15150</t>
@@ -8907,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="182">
+    <row r="182" ht="17.25" customHeight="1">
       <c r="A182" s="13" t="inlineStr">
         <is>
           <t>15320</t>
@@ -8947,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="183">
+    <row r="183" ht="17.25" customHeight="1">
       <c r="A183" s="13" t="inlineStr">
         <is>
           <t>15330</t>
@@ -8987,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="184">
+    <row r="184" ht="17.25" customHeight="1">
       <c r="A184" s="13" t="inlineStr">
         <is>
           <t>15340</t>
@@ -9027,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="185">
+    <row r="185" ht="17.25" customHeight="1">
       <c r="A185" s="13" t="inlineStr">
         <is>
           <t>15350</t>
@@ -9067,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="186">
+    <row r="186" ht="17.25" customHeight="1">
       <c r="A186" s="13" t="inlineStr">
         <is>
           <t>15360</t>
@@ -9107,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="187">
+    <row r="187" ht="17.25" customHeight="1">
       <c r="A187" s="13" t="inlineStr">
         <is>
           <t>21160</t>
@@ -9147,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="188">
+    <row r="188" ht="17.25" customHeight="1">
       <c r="A188" s="13" t="inlineStr">
         <is>
           <t>21161</t>
@@ -9187,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="189">
+    <row r="189" ht="17.25" customHeight="1">
       <c r="A189" s="13" t="inlineStr">
         <is>
           <t>21170</t>
@@ -9227,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="190">
+    <row r="190" ht="17.25" customHeight="1">
       <c r="A190" s="13" t="inlineStr">
         <is>
           <t>21171</t>
@@ -9267,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="191">
+    <row r="191" ht="17.25" customHeight="1">
       <c r="A191" s="13" t="inlineStr">
         <is>
           <t>21180</t>
@@ -9307,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="192">
+    <row r="192" ht="17.25" customHeight="1">
       <c r="A192" s="13" t="inlineStr">
         <is>
           <t>21181</t>
@@ -9347,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="193">
+    <row r="193" ht="17.25" customHeight="1">
       <c r="A193" s="13" t="inlineStr">
         <is>
           <t>21190</t>
@@ -9387,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="194">
+    <row r="194" ht="17.25" customHeight="1">
       <c r="A194" s="13" t="inlineStr">
         <is>
           <t>21191</t>
@@ -9427,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="195">
+    <row r="195" ht="17.25" customHeight="1">
       <c r="A195" s="13" t="inlineStr">
         <is>
           <t>21240</t>
@@ -9467,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="196">
+    <row r="196" ht="17.25" customHeight="1">
       <c r="A196" s="13" t="inlineStr">
         <is>
           <t>21241</t>
@@ -9507,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="197">
+    <row r="197" ht="17.25" customHeight="1">
       <c r="A197" s="13" t="inlineStr">
         <is>
           <t>21250</t>
@@ -9547,7 +9589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="198">
+    <row r="198" ht="17.25" customHeight="1">
       <c r="A198" s="13" t="inlineStr">
         <is>
           <t>21251</t>
@@ -9587,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="199">
+    <row r="199" ht="17.25" customHeight="1">
       <c r="A199" s="13" t="inlineStr">
         <is>
           <t>21260</t>
@@ -9627,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="200">
+    <row r="200" ht="17.25" customHeight="1">
       <c r="A200" s="13" t="inlineStr">
         <is>
           <t>21261</t>
@@ -9667,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="201">
+    <row r="201" ht="17.25" customHeight="1">
       <c r="A201" s="13" t="inlineStr">
         <is>
           <t>21270</t>
@@ -9707,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="202">
+    <row r="202" ht="17.25" customHeight="1">
       <c r="A202" s="13" t="inlineStr">
         <is>
           <t>21271</t>
@@ -9747,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="203">
+    <row r="203" ht="17.25" customHeight="1">
       <c r="A203" s="13" t="inlineStr">
         <is>
           <t>21370</t>
@@ -9787,7 +9829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="204">
+    <row r="204" ht="17.25" customHeight="1">
       <c r="A204" s="13" t="inlineStr">
         <is>
           <t>22160</t>
@@ -9827,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="205">
+    <row r="205" ht="17.25" customHeight="1">
       <c r="A205" s="13" t="inlineStr">
         <is>
           <t>22170</t>
@@ -9867,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="206">
+    <row r="206" ht="17.25" customHeight="1">
       <c r="A206" s="13" t="inlineStr">
         <is>
           <t>22180</t>
@@ -9907,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="207">
+    <row r="207" ht="17.25" customHeight="1">
       <c r="A207" s="13" t="inlineStr">
         <is>
           <t>22190</t>
@@ -9947,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="208">
+    <row r="208" ht="17.25" customHeight="1">
       <c r="A208" s="13" t="inlineStr">
         <is>
           <t>22280</t>
@@ -9987,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="209">
+    <row r="209" ht="17.25" customHeight="1">
       <c r="A209" s="13" t="inlineStr">
         <is>
           <t>22290</t>
@@ -10027,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="210">
+    <row r="210" ht="17.25" customHeight="1">
       <c r="A210" s="13" t="inlineStr">
         <is>
           <t>22300</t>
@@ -10067,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="211">
+    <row r="211" ht="17.25" customHeight="1">
       <c r="A211" s="13" t="inlineStr">
         <is>
           <t>22310</t>
@@ -10107,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="212">
+    <row r="212" ht="17.25" customHeight="1">
       <c r="A212" s="13" t="inlineStr">
         <is>
           <t>22370</t>
@@ -10147,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="213">
+    <row r="213" ht="17.25" customHeight="1">
       <c r="A213" s="13" t="inlineStr">
         <is>
           <t>23160</t>
@@ -10187,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="214">
+    <row r="214" ht="17.25" customHeight="1">
       <c r="A214" s="13" t="inlineStr">
         <is>
           <t>23170</t>
@@ -10227,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="215">
+    <row r="215" ht="17.25" customHeight="1">
       <c r="A215" s="13" t="inlineStr">
         <is>
           <t>23180</t>
@@ -10267,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="216">
+    <row r="216" ht="17.25" customHeight="1">
       <c r="A216" s="13" t="inlineStr">
         <is>
           <t>23190</t>
@@ -10307,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="217">
+    <row r="217" ht="17.25" customHeight="1">
       <c r="A217" s="13" t="inlineStr">
         <is>
           <t>23320</t>
@@ -10347,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="218">
+    <row r="218" ht="17.25" customHeight="1">
       <c r="A218" s="13" t="inlineStr">
         <is>
           <t>23330</t>
@@ -10387,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="219">
+    <row r="219" ht="17.25" customHeight="1">
       <c r="A219" s="13" t="inlineStr">
         <is>
           <t>23340</t>
@@ -10427,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="220">
+    <row r="220" ht="17.25" customHeight="1">
       <c r="A220" s="13" t="inlineStr">
         <is>
           <t>23350</t>
@@ -10467,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="221">
+    <row r="221" ht="17.25" customHeight="1">
       <c r="A221" s="13" t="inlineStr">
         <is>
           <t>23370</t>
@@ -10507,7 +10549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="222">
+    <row r="222" ht="17.25" customHeight="1">
       <c r="A222" s="13" t="inlineStr">
         <is>
           <t>31200</t>
@@ -10547,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="223">
+    <row r="223" ht="17.25" customHeight="1">
       <c r="A223" s="13" t="inlineStr">
         <is>
           <t>31210</t>
@@ -10587,7 +10629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="224">
+    <row r="224" ht="17.25" customHeight="1">
       <c r="A224" s="13" t="inlineStr">
         <is>
           <t>31220</t>
@@ -10627,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="225">
+    <row r="225" ht="17.25" customHeight="1">
       <c r="A225" s="13" t="inlineStr">
         <is>
           <t>31230</t>
@@ -10667,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="226">
+    <row r="226" ht="17.25" customHeight="1">
       <c r="A226" s="13" t="inlineStr">
         <is>
           <t>31280</t>
@@ -10707,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="227">
+    <row r="227" ht="17.25" customHeight="1">
       <c r="A227" s="13" t="inlineStr">
         <is>
           <t>31290</t>
@@ -10747,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="228">
+    <row r="228" ht="17.25" customHeight="1">
       <c r="A228" s="13" t="inlineStr">
         <is>
           <t>31300</t>
@@ -10787,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="229">
+    <row r="229" ht="17.25" customHeight="1">
       <c r="A229" s="13" t="inlineStr">
         <is>
           <t>31310</t>
@@ -10827,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="230">
+    <row r="230" ht="17.25" customHeight="1">
       <c r="A230" s="13" t="inlineStr">
         <is>
           <t>31380</t>
@@ -10867,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="231">
+    <row r="231" ht="17.25" customHeight="1">
       <c r="A231" s="13" t="inlineStr">
         <is>
           <t>32200</t>
@@ -10907,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="232">
+    <row r="232" ht="17.25" customHeight="1">
       <c r="A232" s="13" t="inlineStr">
         <is>
           <t>32210</t>
@@ -10947,7 +10989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="233">
+    <row r="233" ht="17.25" customHeight="1">
       <c r="A233" s="13" t="inlineStr">
         <is>
           <t>32220</t>
@@ -10987,7 +11029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="234">
+    <row r="234" ht="17.25" customHeight="1">
       <c r="A234" s="13" t="inlineStr">
         <is>
           <t>32230</t>
@@ -11027,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="235">
+    <row r="235" ht="17.25" customHeight="1">
       <c r="A235" s="13" t="inlineStr">
         <is>
           <t>32240</t>
@@ -11067,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="236">
+    <row r="236" ht="17.25" customHeight="1">
       <c r="A236" s="13" t="inlineStr">
         <is>
           <t>32250</t>
@@ -11107,7 +11149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="237">
+    <row r="237" ht="17.25" customHeight="1">
       <c r="A237" s="13" t="inlineStr">
         <is>
           <t>32260</t>
@@ -11147,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="238">
+    <row r="238" ht="17.25" customHeight="1">
       <c r="A238" s="13" t="inlineStr">
         <is>
           <t>32270</t>
@@ -11187,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="239">
+    <row r="239" ht="17.25" customHeight="1">
       <c r="A239" s="13" t="inlineStr">
         <is>
           <t>32380</t>
@@ -11227,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="240">
+    <row r="240" ht="17.25" customHeight="1">
       <c r="A240" s="13" t="inlineStr">
         <is>
           <t>33200</t>
@@ -11267,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="241">
+    <row r="241" ht="17.25" customHeight="1">
       <c r="A241" s="13" t="inlineStr">
         <is>
           <t>33201</t>
@@ -11307,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="242">
+    <row r="242" ht="17.25" customHeight="1">
       <c r="A242" s="13" t="inlineStr">
         <is>
           <t>33210</t>
@@ -11347,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="243">
+    <row r="243" ht="17.25" customHeight="1">
       <c r="A243" s="13" t="inlineStr">
         <is>
           <t>33211</t>
@@ -11387,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="244">
+    <row r="244" ht="17.25" customHeight="1">
       <c r="A244" s="13" t="inlineStr">
         <is>
           <t>33220</t>
@@ -11427,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="245">
+    <row r="245" ht="17.25" customHeight="1">
       <c r="A245" s="13" t="inlineStr">
         <is>
           <t>33221</t>
@@ -11467,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="246">
+    <row r="246" ht="17.25" customHeight="1">
       <c r="A246" s="13" t="inlineStr">
         <is>
           <t>33230</t>
@@ -11507,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="247">
+    <row r="247" ht="17.25" customHeight="1">
       <c r="A247" s="13" t="inlineStr">
         <is>
           <t>33231</t>
@@ -11547,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="248">
+    <row r="248" ht="17.25" customHeight="1">
       <c r="A248" s="13" t="inlineStr">
         <is>
           <t>33320</t>
@@ -11587,7 +11629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="249">
+    <row r="249" ht="17.25" customHeight="1">
       <c r="A249" s="13" t="inlineStr">
         <is>
           <t>33321</t>
@@ -11627,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="250">
+    <row r="250" ht="17.25" customHeight="1">
       <c r="A250" s="13" t="inlineStr">
         <is>
           <t>33330</t>
@@ -11667,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="251">
+    <row r="251" ht="17.25" customHeight="1">
       <c r="A251" s="13" t="inlineStr">
         <is>
           <t>33331</t>
@@ -11707,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="252">
+    <row r="252" ht="17.25" customHeight="1">
       <c r="A252" s="13" t="inlineStr">
         <is>
           <t>33340</t>
@@ -11747,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="253">
+    <row r="253" ht="17.25" customHeight="1">
       <c r="A253" s="13" t="inlineStr">
         <is>
           <t>33341</t>
@@ -11787,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="254">
+    <row r="254" ht="17.25" customHeight="1">
       <c r="A254" s="13" t="inlineStr">
         <is>
           <t>33350</t>
@@ -11827,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="255">
+    <row r="255" ht="17.25" customHeight="1">
       <c r="A255" s="13" t="inlineStr">
         <is>
           <t>33351</t>
@@ -11867,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="256">
+    <row r="256" ht="17.25" customHeight="1">
       <c r="A256" s="13" t="inlineStr">
         <is>
           <t>33380</t>
@@ -11907,7 +11949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="257">
+    <row r="257" ht="16.5" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
           <t>13390150</t>
@@ -11947,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="258">
+    <row r="258" ht="16.5" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
           <t>22390240</t>
@@ -11987,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="259">
+    <row r="259" ht="16.5" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
           <t>21400340</t>
@@ -12027,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="260">
+    <row r="260" ht="16.5" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
           <t>23390450</t>
@@ -12067,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="261">
+    <row r="261" ht="16.5" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
           <t>31400540</t>
@@ -12107,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="262">
+    <row r="262" ht="16.5" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
           <t>32410650</t>
@@ -12147,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="263">
+    <row r="263" ht="16.5" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
           <t>33390750</t>
@@ -12185,582 +12227,951 @@
       </c>
       <c r="L263" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>14570</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>33560</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>22620</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>11530</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>12610</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>14550</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>11550</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>13550</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>13530</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>15590</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>15550</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>11600</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>15540</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>11510</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>11580</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>14530</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>13600</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>12550</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>13610</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>13580</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>14600</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>14580</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>15570</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>12520</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>13510</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>14520</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>11570</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>32560</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>11590</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>12570</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>12600</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>13590</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>13540</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>14510</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>13520</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>11520</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>11610</t>
+        </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>存档名</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>存档1</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>存档2</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>存档3</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>存档4</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>存档5</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>存档6</t>
-        </is>
-      </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>存档7</t>
-        </is>
-      </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>存档8</t>
-        </is>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>存档9</t>
-        </is>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>存档10</t>
-        </is>
-      </c>
+          <t>12590</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="inlineStr"/>
+      <c r="O301" t="inlineStr"/>
+      <c r="P301" t="inlineStr"/>
+      <c r="Q301" t="inlineStr"/>
+      <c r="R301" t="inlineStr"/>
+      <c r="S301" t="inlineStr"/>
+      <c r="T301" t="inlineStr"/>
+      <c r="U301" t="inlineStr"/>
+      <c r="V301" t="inlineStr"/>
+      <c r="W301" t="inlineStr"/>
+      <c r="X301" t="inlineStr"/>
+      <c r="Y301" t="inlineStr"/>
+      <c r="Z301" t="inlineStr"/>
+      <c r="AA301" t="inlineStr"/>
+      <c r="AB301" t="inlineStr"/>
+      <c r="AC301" t="inlineStr"/>
+      <c r="AD301" t="inlineStr"/>
+      <c r="AE301" t="inlineStr"/>
+      <c r="AF301" t="inlineStr"/>
+      <c r="AG301" t="inlineStr"/>
+      <c r="AH301" t="inlineStr"/>
+      <c r="AI301" t="inlineStr"/>
+      <c r="AJ301" t="inlineStr"/>
+      <c r="AK301" t="inlineStr"/>
+      <c r="AL301" t="inlineStr"/>
+      <c r="AM301" t="inlineStr"/>
+      <c r="AN301" t="inlineStr"/>
+      <c r="AO301" t="inlineStr"/>
+      <c r="AP301" t="inlineStr"/>
+      <c r="AQ301" t="inlineStr"/>
+      <c r="AR301" t="inlineStr"/>
+      <c r="AS301" t="inlineStr"/>
+      <c r="AT301" t="inlineStr"/>
+      <c r="AU301" t="inlineStr"/>
+      <c r="AV301" t="inlineStr"/>
+      <c r="AW301" t="inlineStr"/>
+      <c r="AX301" t="inlineStr"/>
+      <c r="AY301" t="inlineStr"/>
+      <c r="AZ301" t="inlineStr"/>
+      <c r="BA301" t="inlineStr"/>
+      <c r="BB301" t="inlineStr"/>
+      <c r="BC301" t="inlineStr"/>
+      <c r="BD301" t="inlineStr"/>
+      <c r="BE301" t="inlineStr"/>
+      <c r="BF301" t="inlineStr"/>
+      <c r="BG301" t="inlineStr"/>
+      <c r="BH301" t="inlineStr"/>
+      <c r="BI301" t="inlineStr"/>
+      <c r="BJ301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>武器</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
-      <c r="J302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>选择武器</t>
-        </is>
-      </c>
+          <t>14610</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="inlineStr"/>
+      <c r="O302" t="inlineStr"/>
+      <c r="P302" t="inlineStr"/>
+      <c r="Q302" t="inlineStr"/>
+      <c r="R302" t="inlineStr"/>
+      <c r="S302" t="inlineStr"/>
+      <c r="T302" t="inlineStr"/>
+      <c r="U302" t="inlineStr"/>
+      <c r="V302" t="inlineStr"/>
+      <c r="W302" t="inlineStr"/>
+      <c r="X302" t="inlineStr"/>
+      <c r="Y302" t="inlineStr"/>
+      <c r="Z302" t="inlineStr"/>
+      <c r="AA302" t="inlineStr"/>
+      <c r="AB302" t="inlineStr"/>
+      <c r="AC302" t="inlineStr"/>
+      <c r="AD302" t="inlineStr"/>
+      <c r="AE302" t="inlineStr"/>
+      <c r="AF302" t="inlineStr"/>
+      <c r="AG302" t="inlineStr"/>
+      <c r="AH302" t="inlineStr"/>
+      <c r="AI302" t="inlineStr"/>
+      <c r="AJ302" t="inlineStr"/>
+      <c r="AK302" t="inlineStr"/>
+      <c r="AL302" t="inlineStr"/>
+      <c r="AM302" t="inlineStr"/>
+      <c r="AN302" t="inlineStr"/>
+      <c r="AO302" t="inlineStr"/>
+      <c r="AP302" t="inlineStr"/>
+      <c r="AQ302" t="inlineStr"/>
+      <c r="AR302" t="inlineStr"/>
+      <c r="AS302" t="inlineStr"/>
+      <c r="AT302" t="inlineStr"/>
+      <c r="AU302" t="inlineStr"/>
+      <c r="AV302" t="inlineStr"/>
+      <c r="AW302" t="inlineStr"/>
+      <c r="AX302" t="inlineStr"/>
+      <c r="AY302" t="inlineStr"/>
+      <c r="AZ302" t="inlineStr"/>
+      <c r="BA302" t="inlineStr"/>
+      <c r="BB302" t="inlineStr"/>
+      <c r="BC302" t="inlineStr"/>
+      <c r="BD302" t="inlineStr"/>
+      <c r="BE302" t="inlineStr"/>
+      <c r="BF302" t="inlineStr"/>
+      <c r="BG302" t="inlineStr"/>
+      <c r="BH302" t="inlineStr"/>
+      <c r="BI302" t="inlineStr"/>
+      <c r="BJ302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="I303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="J303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>职业选择</t>
-        </is>
-      </c>
+          <t>22640</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="inlineStr"/>
+      <c r="O303" t="inlineStr"/>
+      <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr"/>
+      <c r="R303" t="inlineStr"/>
+      <c r="S303" t="inlineStr"/>
+      <c r="T303" t="inlineStr"/>
+      <c r="U303" t="inlineStr"/>
+      <c r="V303" t="inlineStr"/>
+      <c r="W303" t="inlineStr"/>
+      <c r="X303" t="inlineStr"/>
+      <c r="Y303" t="inlineStr"/>
+      <c r="Z303" t="inlineStr"/>
+      <c r="AA303" t="inlineStr"/>
+      <c r="AB303" t="inlineStr"/>
+      <c r="AC303" t="inlineStr"/>
+      <c r="AD303" t="inlineStr"/>
+      <c r="AE303" t="inlineStr"/>
+      <c r="AF303" t="inlineStr"/>
+      <c r="AG303" t="inlineStr"/>
+      <c r="AH303" t="inlineStr"/>
+      <c r="AI303" t="inlineStr"/>
+      <c r="AJ303" t="inlineStr"/>
+      <c r="AK303" t="inlineStr"/>
+      <c r="AL303" t="inlineStr"/>
+      <c r="AM303" t="inlineStr"/>
+      <c r="AN303" t="inlineStr"/>
+      <c r="AO303" t="inlineStr"/>
+      <c r="AP303" t="inlineStr"/>
+      <c r="AQ303" t="inlineStr"/>
+      <c r="AR303" t="inlineStr"/>
+      <c r="AS303" t="inlineStr"/>
+      <c r="AT303" t="inlineStr"/>
+      <c r="AU303" t="inlineStr"/>
+      <c r="AV303" t="inlineStr"/>
+      <c r="AW303" t="inlineStr"/>
+      <c r="AX303" t="inlineStr"/>
+      <c r="AY303" t="inlineStr"/>
+      <c r="AZ303" t="inlineStr"/>
+      <c r="BA303" t="inlineStr"/>
+      <c r="BB303" t="inlineStr"/>
+      <c r="BC303" t="inlineStr"/>
+      <c r="BD303" t="inlineStr"/>
+      <c r="BE303" t="inlineStr"/>
+      <c r="BF303" t="inlineStr"/>
+      <c r="BG303" t="inlineStr"/>
+      <c r="BH303" t="inlineStr"/>
+      <c r="BI303" t="inlineStr"/>
+      <c r="BJ303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>输出时间</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
-      <c r="J304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>20秒(觉醒占比↑)</t>
-        </is>
-      </c>
+          <t>12530</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="inlineStr"/>
+      <c r="O304" t="inlineStr"/>
+      <c r="P304" t="inlineStr"/>
+      <c r="Q304" t="inlineStr"/>
+      <c r="R304" t="inlineStr"/>
+      <c r="S304" t="inlineStr"/>
+      <c r="T304" t="inlineStr"/>
+      <c r="U304" t="inlineStr"/>
+      <c r="V304" t="inlineStr"/>
+      <c r="W304" t="inlineStr"/>
+      <c r="X304" t="inlineStr"/>
+      <c r="Y304" t="inlineStr"/>
+      <c r="Z304" t="inlineStr"/>
+      <c r="AA304" t="inlineStr"/>
+      <c r="AB304" t="inlineStr"/>
+      <c r="AC304" t="inlineStr"/>
+      <c r="AD304" t="inlineStr"/>
+      <c r="AE304" t="inlineStr"/>
+      <c r="AF304" t="inlineStr"/>
+      <c r="AG304" t="inlineStr"/>
+      <c r="AH304" t="inlineStr"/>
+      <c r="AI304" t="inlineStr"/>
+      <c r="AJ304" t="inlineStr"/>
+      <c r="AK304" t="inlineStr"/>
+      <c r="AL304" t="inlineStr"/>
+      <c r="AM304" t="inlineStr"/>
+      <c r="AN304" t="inlineStr"/>
+      <c r="AO304" t="inlineStr"/>
+      <c r="AP304" t="inlineStr"/>
+      <c r="AQ304" t="inlineStr"/>
+      <c r="AR304" t="inlineStr"/>
+      <c r="AS304" t="inlineStr"/>
+      <c r="AT304" t="inlineStr"/>
+      <c r="AU304" t="inlineStr"/>
+      <c r="AV304" t="inlineStr"/>
+      <c r="AW304" t="inlineStr"/>
+      <c r="AX304" t="inlineStr"/>
+      <c r="AY304" t="inlineStr"/>
+      <c r="AZ304" t="inlineStr"/>
+      <c r="BA304" t="inlineStr"/>
+      <c r="BB304" t="inlineStr"/>
+      <c r="BC304" t="inlineStr"/>
+      <c r="BD304" t="inlineStr"/>
+      <c r="BE304" t="inlineStr"/>
+      <c r="BF304" t="inlineStr"/>
+      <c r="BG304" t="inlineStr"/>
+      <c r="BH304" t="inlineStr"/>
+      <c r="BI304" t="inlineStr"/>
+      <c r="BJ304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>称号选择</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
-      <c r="I305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
-      <c r="J305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>使徒降临</t>
-        </is>
-      </c>
+          <t>12540</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="inlineStr"/>
+      <c r="O305" t="inlineStr"/>
+      <c r="P305" t="inlineStr"/>
+      <c r="Q305" t="inlineStr"/>
+      <c r="R305" t="inlineStr"/>
+      <c r="S305" t="inlineStr"/>
+      <c r="T305" t="inlineStr"/>
+      <c r="U305" t="inlineStr"/>
+      <c r="V305" t="inlineStr"/>
+      <c r="W305" t="inlineStr"/>
+      <c r="X305" t="inlineStr"/>
+      <c r="Y305" t="inlineStr"/>
+      <c r="Z305" t="inlineStr"/>
+      <c r="AA305" t="inlineStr"/>
+      <c r="AB305" t="inlineStr"/>
+      <c r="AC305" t="inlineStr"/>
+      <c r="AD305" t="inlineStr"/>
+      <c r="AE305" t="inlineStr"/>
+      <c r="AF305" t="inlineStr"/>
+      <c r="AG305" t="inlineStr"/>
+      <c r="AH305" t="inlineStr"/>
+      <c r="AI305" t="inlineStr"/>
+      <c r="AJ305" t="inlineStr"/>
+      <c r="AK305" t="inlineStr"/>
+      <c r="AL305" t="inlineStr"/>
+      <c r="AM305" t="inlineStr"/>
+      <c r="AN305" t="inlineStr"/>
+      <c r="AO305" t="inlineStr"/>
+      <c r="AP305" t="inlineStr"/>
+      <c r="AQ305" t="inlineStr"/>
+      <c r="AR305" t="inlineStr"/>
+      <c r="AS305" t="inlineStr"/>
+      <c r="AT305" t="inlineStr"/>
+      <c r="AU305" t="inlineStr"/>
+      <c r="AV305" t="inlineStr"/>
+      <c r="AW305" t="inlineStr"/>
+      <c r="AX305" t="inlineStr"/>
+      <c r="AY305" t="inlineStr"/>
+      <c r="AZ305" t="inlineStr"/>
+      <c r="BA305" t="inlineStr"/>
+      <c r="BB305" t="inlineStr"/>
+      <c r="BC305" t="inlineStr"/>
+      <c r="BD305" t="inlineStr"/>
+      <c r="BE305" t="inlineStr"/>
+      <c r="BF305" t="inlineStr"/>
+      <c r="BG305" t="inlineStr"/>
+      <c r="BH305" t="inlineStr"/>
+      <c r="BI305" t="inlineStr"/>
+      <c r="BJ305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>宠物选择</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
-      <c r="J306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>弓手维多利亚</t>
-        </is>
-      </c>
+          <t>15520</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="inlineStr"/>
+      <c r="O306" t="inlineStr"/>
+      <c r="P306" t="inlineStr"/>
+      <c r="Q306" t="inlineStr"/>
+      <c r="R306" t="inlineStr"/>
+      <c r="S306" t="inlineStr"/>
+      <c r="T306" t="inlineStr"/>
+      <c r="U306" t="inlineStr"/>
+      <c r="V306" t="inlineStr"/>
+      <c r="W306" t="inlineStr"/>
+      <c r="X306" t="inlineStr"/>
+      <c r="Y306" t="inlineStr"/>
+      <c r="Z306" t="inlineStr"/>
+      <c r="AA306" t="inlineStr"/>
+      <c r="AB306" t="inlineStr"/>
+      <c r="AC306" t="inlineStr"/>
+      <c r="AD306" t="inlineStr"/>
+      <c r="AE306" t="inlineStr"/>
+      <c r="AF306" t="inlineStr"/>
+      <c r="AG306" t="inlineStr"/>
+      <c r="AH306" t="inlineStr"/>
+      <c r="AI306" t="inlineStr"/>
+      <c r="AJ306" t="inlineStr"/>
+      <c r="AK306" t="inlineStr"/>
+      <c r="AL306" t="inlineStr"/>
+      <c r="AM306" t="inlineStr"/>
+      <c r="AN306" t="inlineStr"/>
+      <c r="AO306" t="inlineStr"/>
+      <c r="AP306" t="inlineStr"/>
+      <c r="AQ306" t="inlineStr"/>
+      <c r="AR306" t="inlineStr"/>
+      <c r="AS306" t="inlineStr"/>
+      <c r="AT306" t="inlineStr"/>
+      <c r="AU306" t="inlineStr"/>
+      <c r="AV306" t="inlineStr"/>
+      <c r="AW306" t="inlineStr"/>
+      <c r="AX306" t="inlineStr"/>
+      <c r="AY306" t="inlineStr"/>
+      <c r="AZ306" t="inlineStr"/>
+      <c r="BA306" t="inlineStr"/>
+      <c r="BB306" t="inlineStr"/>
+      <c r="BC306" t="inlineStr"/>
+      <c r="BD306" t="inlineStr"/>
+      <c r="BE306" t="inlineStr"/>
+      <c r="BF306" t="inlineStr"/>
+      <c r="BG306" t="inlineStr"/>
+      <c r="BH306" t="inlineStr"/>
+      <c r="BI306" t="inlineStr"/>
+      <c r="BJ306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>冷却补正</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
-      <c r="I307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
-      <c r="J307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>X(纯伤害)</t>
-        </is>
-      </c>
+          <t>12580</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="inlineStr"/>
+      <c r="O307" t="inlineStr"/>
+      <c r="P307" t="inlineStr"/>
+      <c r="Q307" t="inlineStr"/>
+      <c r="R307" t="inlineStr"/>
+      <c r="S307" t="inlineStr"/>
+      <c r="T307" t="inlineStr"/>
+      <c r="U307" t="inlineStr"/>
+      <c r="V307" t="inlineStr"/>
+      <c r="W307" t="inlineStr"/>
+      <c r="X307" t="inlineStr"/>
+      <c r="Y307" t="inlineStr"/>
+      <c r="Z307" t="inlineStr"/>
+      <c r="AA307" t="inlineStr"/>
+      <c r="AB307" t="inlineStr"/>
+      <c r="AC307" t="inlineStr"/>
+      <c r="AD307" t="inlineStr"/>
+      <c r="AE307" t="inlineStr"/>
+      <c r="AF307" t="inlineStr"/>
+      <c r="AG307" t="inlineStr"/>
+      <c r="AH307" t="inlineStr"/>
+      <c r="AI307" t="inlineStr"/>
+      <c r="AJ307" t="inlineStr"/>
+      <c r="AK307" t="inlineStr"/>
+      <c r="AL307" t="inlineStr"/>
+      <c r="AM307" t="inlineStr"/>
+      <c r="AN307" t="inlineStr"/>
+      <c r="AO307" t="inlineStr"/>
+      <c r="AP307" t="inlineStr"/>
+      <c r="AQ307" t="inlineStr"/>
+      <c r="AR307" t="inlineStr"/>
+      <c r="AS307" t="inlineStr"/>
+      <c r="AT307" t="inlineStr"/>
+      <c r="AU307" t="inlineStr"/>
+      <c r="AV307" t="inlineStr"/>
+      <c r="AW307" t="inlineStr"/>
+      <c r="AX307" t="inlineStr"/>
+      <c r="AY307" t="inlineStr"/>
+      <c r="AZ307" t="inlineStr"/>
+      <c r="BA307" t="inlineStr"/>
+      <c r="BB307" t="inlineStr"/>
+      <c r="BC307" t="inlineStr"/>
+      <c r="BD307" t="inlineStr"/>
+      <c r="BE307" t="inlineStr"/>
+      <c r="BF307" t="inlineStr"/>
+      <c r="BG307" t="inlineStr"/>
+      <c r="BH307" t="inlineStr"/>
+      <c r="BI307" t="inlineStr"/>
+      <c r="BJ307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>选择速度</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>中速</t>
-        </is>
-      </c>
+          <t>21640</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr"/>
+      <c r="P308" t="inlineStr"/>
+      <c r="Q308" t="inlineStr"/>
+      <c r="R308" t="inlineStr"/>
+      <c r="S308" t="inlineStr"/>
+      <c r="T308" t="inlineStr"/>
+      <c r="U308" t="inlineStr"/>
+      <c r="V308" t="inlineStr"/>
+      <c r="W308" t="inlineStr"/>
+      <c r="X308" t="inlineStr"/>
+      <c r="Y308" t="inlineStr"/>
+      <c r="Z308" t="inlineStr"/>
+      <c r="AA308" t="inlineStr"/>
+      <c r="AB308" t="inlineStr"/>
+      <c r="AC308" t="inlineStr"/>
+      <c r="AD308" t="inlineStr"/>
+      <c r="AE308" t="inlineStr"/>
+      <c r="AF308" t="inlineStr"/>
+      <c r="AG308" t="inlineStr"/>
+      <c r="AH308" t="inlineStr"/>
+      <c r="AI308" t="inlineStr"/>
+      <c r="AJ308" t="inlineStr"/>
+      <c r="AK308" t="inlineStr"/>
+      <c r="AL308" t="inlineStr"/>
+      <c r="AM308" t="inlineStr"/>
+      <c r="AN308" t="inlineStr"/>
+      <c r="AO308" t="inlineStr"/>
+      <c r="AP308" t="inlineStr"/>
+      <c r="AQ308" t="inlineStr"/>
+      <c r="AR308" t="inlineStr"/>
+      <c r="AS308" t="inlineStr"/>
+      <c r="AT308" t="inlineStr"/>
+      <c r="AU308" t="inlineStr"/>
+      <c r="AV308" t="inlineStr"/>
+      <c r="AW308" t="inlineStr"/>
+      <c r="AX308" t="inlineStr"/>
+      <c r="AY308" t="inlineStr"/>
+      <c r="AZ308" t="inlineStr"/>
+      <c r="BA308" t="inlineStr"/>
+      <c r="BB308" t="inlineStr"/>
+      <c r="BC308" t="inlineStr"/>
+      <c r="BD308" t="inlineStr"/>
+      <c r="BE308" t="inlineStr"/>
+      <c r="BF308" t="inlineStr"/>
+      <c r="BG308" t="inlineStr"/>
+      <c r="BH308" t="inlineStr"/>
+      <c r="BI308" t="inlineStr"/>
+      <c r="BJ308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>是否拥有百变怪</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
-      <c r="I309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
-      <c r="J309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>No(没有百变怪)</t>
-        </is>
-      </c>
+          <t>31560</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="inlineStr"/>
+      <c r="O309" t="inlineStr"/>
+      <c r="P309" t="inlineStr"/>
+      <c r="Q309" t="inlineStr"/>
+      <c r="R309" t="inlineStr"/>
+      <c r="S309" t="inlineStr"/>
+      <c r="T309" t="inlineStr"/>
+      <c r="U309" t="inlineStr"/>
+      <c r="V309" t="inlineStr"/>
+      <c r="W309" t="inlineStr"/>
+      <c r="X309" t="inlineStr"/>
+      <c r="Y309" t="inlineStr"/>
+      <c r="Z309" t="inlineStr"/>
+      <c r="AA309" t="inlineStr"/>
+      <c r="AB309" t="inlineStr"/>
+      <c r="AC309" t="inlineStr"/>
+      <c r="AD309" t="inlineStr"/>
+      <c r="AE309" t="inlineStr"/>
+      <c r="AF309" t="inlineStr"/>
+      <c r="AG309" t="inlineStr"/>
+      <c r="AH309" t="inlineStr"/>
+      <c r="AI309" t="inlineStr"/>
+      <c r="AJ309" t="inlineStr"/>
+      <c r="AK309" t="inlineStr"/>
+      <c r="AL309" t="inlineStr"/>
+      <c r="AM309" t="inlineStr"/>
+      <c r="AN309" t="inlineStr"/>
+      <c r="AO309" t="inlineStr"/>
+      <c r="AP309" t="inlineStr"/>
+      <c r="AQ309" t="inlineStr"/>
+      <c r="AR309" t="inlineStr"/>
+      <c r="AS309" t="inlineStr"/>
+      <c r="AT309" t="inlineStr"/>
+      <c r="AU309" t="inlineStr"/>
+      <c r="AV309" t="inlineStr"/>
+      <c r="AW309" t="inlineStr"/>
+      <c r="AX309" t="inlineStr"/>
+      <c r="AY309" t="inlineStr"/>
+      <c r="AZ309" t="inlineStr"/>
+      <c r="BA309" t="inlineStr"/>
+      <c r="BB309" t="inlineStr"/>
+      <c r="BC309" t="inlineStr"/>
+      <c r="BD309" t="inlineStr"/>
+      <c r="BE309" t="inlineStr"/>
+      <c r="BF309" t="inlineStr"/>
+      <c r="BG309" t="inlineStr"/>
+      <c r="BH309" t="inlineStr"/>
+      <c r="BI309" t="inlineStr"/>
+      <c r="BJ309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>材料够升级的工作服数目</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
-      <c r="J310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>材料够升级零件</t>
-        </is>
-      </c>
+          <t>15530</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="inlineStr"/>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="inlineStr"/>
+      <c r="R310" t="inlineStr"/>
+      <c r="S310" t="inlineStr"/>
+      <c r="T310" t="inlineStr"/>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr"/>
+      <c r="W310" t="inlineStr"/>
+      <c r="X310" t="inlineStr"/>
+      <c r="Y310" t="inlineStr"/>
+      <c r="Z310" t="inlineStr"/>
+      <c r="AA310" t="inlineStr"/>
+      <c r="AB310" t="inlineStr"/>
+      <c r="AC310" t="inlineStr"/>
+      <c r="AD310" t="inlineStr"/>
+      <c r="AE310" t="inlineStr"/>
+      <c r="AF310" t="inlineStr"/>
+      <c r="AG310" t="inlineStr"/>
+      <c r="AH310" t="inlineStr"/>
+      <c r="AI310" t="inlineStr"/>
+      <c r="AJ310" t="inlineStr"/>
+      <c r="AK310" t="inlineStr"/>
+      <c r="AL310" t="inlineStr"/>
+      <c r="AM310" t="inlineStr"/>
+      <c r="AN310" t="inlineStr"/>
+      <c r="AO310" t="inlineStr"/>
+      <c r="AP310" t="inlineStr"/>
+      <c r="AQ310" t="inlineStr"/>
+      <c r="AR310" t="inlineStr"/>
+      <c r="AS310" t="inlineStr"/>
+      <c r="AT310" t="inlineStr"/>
+      <c r="AU310" t="inlineStr"/>
+      <c r="AV310" t="inlineStr"/>
+      <c r="AW310" t="inlineStr"/>
+      <c r="AX310" t="inlineStr"/>
+      <c r="AY310" t="inlineStr"/>
+      <c r="AZ310" t="inlineStr"/>
+      <c r="BA310" t="inlineStr"/>
+      <c r="BB310" t="inlineStr"/>
+      <c r="BC310" t="inlineStr"/>
+      <c r="BD310" t="inlineStr"/>
+      <c r="BE310" t="inlineStr"/>
+      <c r="BF310" t="inlineStr"/>
+      <c r="BG310" t="inlineStr"/>
+      <c r="BH310" t="inlineStr"/>
+      <c r="BI310" t="inlineStr"/>
+      <c r="BJ310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>跨界来源账户列表</t>
+          <t>21630</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -12773,116 +13184,4826 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="inlineStr"/>
+      <c r="O311" t="inlineStr"/>
+      <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr"/>
+      <c r="R311" t="inlineStr"/>
+      <c r="S311" t="inlineStr"/>
+      <c r="T311" t="inlineStr"/>
+      <c r="U311" t="inlineStr"/>
+      <c r="V311" t="inlineStr"/>
+      <c r="W311" t="inlineStr"/>
+      <c r="X311" t="inlineStr"/>
+      <c r="Y311" t="inlineStr"/>
+      <c r="Z311" t="inlineStr"/>
+      <c r="AA311" t="inlineStr"/>
+      <c r="AB311" t="inlineStr"/>
+      <c r="AC311" t="inlineStr"/>
+      <c r="AD311" t="inlineStr"/>
+      <c r="AE311" t="inlineStr"/>
+      <c r="AF311" t="inlineStr"/>
+      <c r="AG311" t="inlineStr"/>
+      <c r="AH311" t="inlineStr"/>
+      <c r="AI311" t="inlineStr"/>
+      <c r="AJ311" t="inlineStr"/>
+      <c r="AK311" t="inlineStr"/>
+      <c r="AL311" t="inlineStr"/>
+      <c r="AM311" t="inlineStr"/>
+      <c r="AN311" t="inlineStr"/>
+      <c r="AO311" t="inlineStr"/>
+      <c r="AP311" t="inlineStr"/>
+      <c r="AQ311" t="inlineStr"/>
+      <c r="AR311" t="inlineStr"/>
+      <c r="AS311" t="inlineStr"/>
+      <c r="AT311" t="inlineStr"/>
+      <c r="AU311" t="inlineStr"/>
+      <c r="AV311" t="inlineStr"/>
+      <c r="AW311" t="inlineStr"/>
+      <c r="AX311" t="inlineStr"/>
+      <c r="AY311" t="inlineStr"/>
+      <c r="AZ311" t="inlineStr"/>
+      <c r="BA311" t="inlineStr"/>
+      <c r="BB311" t="inlineStr"/>
+      <c r="BC311" t="inlineStr"/>
+      <c r="BD311" t="inlineStr"/>
+      <c r="BE311" t="inlineStr"/>
+      <c r="BF311" t="inlineStr"/>
+      <c r="BG311" t="inlineStr"/>
+      <c r="BH311" t="inlineStr"/>
+      <c r="BI311" t="inlineStr"/>
+      <c r="BJ311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>最大跨界数目</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>11540</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr"/>
+      <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="inlineStr"/>
+      <c r="R312" t="inlineStr"/>
+      <c r="S312" t="inlineStr"/>
+      <c r="T312" t="inlineStr"/>
+      <c r="U312" t="inlineStr"/>
+      <c r="V312" t="inlineStr"/>
+      <c r="W312" t="inlineStr"/>
+      <c r="X312" t="inlineStr"/>
+      <c r="Y312" t="inlineStr"/>
+      <c r="Z312" t="inlineStr"/>
+      <c r="AA312" t="inlineStr"/>
+      <c r="AB312" t="inlineStr"/>
+      <c r="AC312" t="inlineStr"/>
+      <c r="AD312" t="inlineStr"/>
+      <c r="AE312" t="inlineStr"/>
+      <c r="AF312" t="inlineStr"/>
+      <c r="AG312" t="inlineStr"/>
+      <c r="AH312" t="inlineStr"/>
+      <c r="AI312" t="inlineStr"/>
+      <c r="AJ312" t="inlineStr"/>
+      <c r="AK312" t="inlineStr"/>
+      <c r="AL312" t="inlineStr"/>
+      <c r="AM312" t="inlineStr"/>
+      <c r="AN312" t="inlineStr"/>
+      <c r="AO312" t="inlineStr"/>
+      <c r="AP312" t="inlineStr"/>
+      <c r="AQ312" t="inlineStr"/>
+      <c r="AR312" t="inlineStr"/>
+      <c r="AS312" t="inlineStr"/>
+      <c r="AT312" t="inlineStr"/>
+      <c r="AU312" t="inlineStr"/>
+      <c r="AV312" t="inlineStr"/>
+      <c r="AW312" t="inlineStr"/>
+      <c r="AX312" t="inlineStr"/>
+      <c r="AY312" t="inlineStr"/>
+      <c r="AZ312" t="inlineStr"/>
+      <c r="BA312" t="inlineStr"/>
+      <c r="BB312" t="inlineStr"/>
+      <c r="BC312" t="inlineStr"/>
+      <c r="BD312" t="inlineStr"/>
+      <c r="BE312" t="inlineStr"/>
+      <c r="BF312" t="inlineStr"/>
+      <c r="BG312" t="inlineStr"/>
+      <c r="BH312" t="inlineStr"/>
+      <c r="BI312" t="inlineStr"/>
+      <c r="BJ312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
+          <t>23630</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr"/>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr"/>
+      <c r="R313" t="inlineStr"/>
+      <c r="S313" t="inlineStr"/>
+      <c r="T313" t="inlineStr"/>
+      <c r="U313" t="inlineStr"/>
+      <c r="V313" t="inlineStr"/>
+      <c r="W313" t="inlineStr"/>
+      <c r="X313" t="inlineStr"/>
+      <c r="Y313" t="inlineStr"/>
+      <c r="Z313" t="inlineStr"/>
+      <c r="AA313" t="inlineStr"/>
+      <c r="AB313" t="inlineStr"/>
+      <c r="AC313" t="inlineStr"/>
+      <c r="AD313" t="inlineStr"/>
+      <c r="AE313" t="inlineStr"/>
+      <c r="AF313" t="inlineStr"/>
+      <c r="AG313" t="inlineStr"/>
+      <c r="AH313" t="inlineStr"/>
+      <c r="AI313" t="inlineStr"/>
+      <c r="AJ313" t="inlineStr"/>
+      <c r="AK313" t="inlineStr"/>
+      <c r="AL313" t="inlineStr"/>
+      <c r="AM313" t="inlineStr"/>
+      <c r="AN313" t="inlineStr"/>
+      <c r="AO313" t="inlineStr"/>
+      <c r="AP313" t="inlineStr"/>
+      <c r="AQ313" t="inlineStr"/>
+      <c r="AR313" t="inlineStr"/>
+      <c r="AS313" t="inlineStr"/>
+      <c r="AT313" t="inlineStr"/>
+      <c r="AU313" t="inlineStr"/>
+      <c r="AV313" t="inlineStr"/>
+      <c r="AW313" t="inlineStr"/>
+      <c r="AX313" t="inlineStr"/>
+      <c r="AY313" t="inlineStr"/>
+      <c r="AZ313" t="inlineStr"/>
+      <c r="BA313" t="inlineStr"/>
+      <c r="BB313" t="inlineStr"/>
+      <c r="BC313" t="inlineStr"/>
+      <c r="BD313" t="inlineStr"/>
+      <c r="BE313" t="inlineStr"/>
+      <c r="BF313" t="inlineStr"/>
+      <c r="BG313" t="inlineStr"/>
+      <c r="BH313" t="inlineStr"/>
+      <c r="BI313" t="inlineStr"/>
+      <c r="BJ313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>15610</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>21620</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>23640</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>14590</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>22630</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>12510</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>13570</t>
+        </is>
+      </c>
+    </row>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+    <row r="1001"/>
+    <row r="1002"/>
+    <row r="1003"/>
+    <row r="1004"/>
+    <row r="1005"/>
+    <row r="1006"/>
+    <row r="1007"/>
+    <row r="1008"/>
+    <row r="1009"/>
+    <row r="1010"/>
+    <row r="1011"/>
+    <row r="1012"/>
+    <row r="1013"/>
+    <row r="1014"/>
+    <row r="1015"/>
+    <row r="1016"/>
+    <row r="1017"/>
+    <row r="1018"/>
+    <row r="1019"/>
+    <row r="1020"/>
+    <row r="1021"/>
+    <row r="1022"/>
+    <row r="1023"/>
+    <row r="1024"/>
+    <row r="1025"/>
+    <row r="1026"/>
+    <row r="1027"/>
+    <row r="1028"/>
+    <row r="1029"/>
+    <row r="1030"/>
+    <row r="1031"/>
+    <row r="1032"/>
+    <row r="1033"/>
+    <row r="1034"/>
+    <row r="1035"/>
+    <row r="1036"/>
+    <row r="1037"/>
+    <row r="1038"/>
+    <row r="1039"/>
+    <row r="1040"/>
+    <row r="1041"/>
+    <row r="1042"/>
+    <row r="1043"/>
+    <row r="1044"/>
+    <row r="1045"/>
+    <row r="1046"/>
+    <row r="1047"/>
+    <row r="1048"/>
+    <row r="1049"/>
+    <row r="1050"/>
+    <row r="1051"/>
+    <row r="1052"/>
+    <row r="1053"/>
+    <row r="1054"/>
+    <row r="1055"/>
+    <row r="1056"/>
+    <row r="1057"/>
+    <row r="1058"/>
+    <row r="1059"/>
+    <row r="1060"/>
+    <row r="1061"/>
+    <row r="1062"/>
+    <row r="1063"/>
+    <row r="1064"/>
+    <row r="1065"/>
+    <row r="1066"/>
+    <row r="1067"/>
+    <row r="1068"/>
+    <row r="1069"/>
+    <row r="1070"/>
+    <row r="1071"/>
+    <row r="1072"/>
+    <row r="1073"/>
+    <row r="1074"/>
+    <row r="1075"/>
+    <row r="1076"/>
+    <row r="1077"/>
+    <row r="1078"/>
+    <row r="1079"/>
+    <row r="1080"/>
+    <row r="1081"/>
+    <row r="1082"/>
+    <row r="1083"/>
+    <row r="1084"/>
+    <row r="1085"/>
+    <row r="1086"/>
+    <row r="1087"/>
+    <row r="1088"/>
+    <row r="1089"/>
+    <row r="1090"/>
+    <row r="1091"/>
+    <row r="1092"/>
+    <row r="1093"/>
+    <row r="1094"/>
+    <row r="1095"/>
+    <row r="1096"/>
+    <row r="1097"/>
+    <row r="1098"/>
+    <row r="1099"/>
+    <row r="1100"/>
+    <row r="1101"/>
+    <row r="1102"/>
+    <row r="1103"/>
+    <row r="1104"/>
+    <row r="1105"/>
+    <row r="1106"/>
+    <row r="1107"/>
+    <row r="1108"/>
+    <row r="1109"/>
+    <row r="1110"/>
+    <row r="1111"/>
+    <row r="1112"/>
+    <row r="1113"/>
+    <row r="1114"/>
+    <row r="1115"/>
+    <row r="1116"/>
+    <row r="1117"/>
+    <row r="1118"/>
+    <row r="1119"/>
+    <row r="1120"/>
+    <row r="1121"/>
+    <row r="1122"/>
+    <row r="1123"/>
+    <row r="1124"/>
+    <row r="1125"/>
+    <row r="1126"/>
+    <row r="1127"/>
+    <row r="1128"/>
+    <row r="1129"/>
+    <row r="1130"/>
+    <row r="1131"/>
+    <row r="1132"/>
+    <row r="1133"/>
+    <row r="1134"/>
+    <row r="1135"/>
+    <row r="1136"/>
+    <row r="1137"/>
+    <row r="1138"/>
+    <row r="1139"/>
+    <row r="1140"/>
+    <row r="1141"/>
+    <row r="1142"/>
+    <row r="1143"/>
+    <row r="1144"/>
+    <row r="1145"/>
+    <row r="1146"/>
+    <row r="1147"/>
+    <row r="1148"/>
+    <row r="1149"/>
+    <row r="1150"/>
+    <row r="1151"/>
+    <row r="1152"/>
+    <row r="1153"/>
+    <row r="1154"/>
+    <row r="1155"/>
+    <row r="1156"/>
+    <row r="1157"/>
+    <row r="1158"/>
+    <row r="1159"/>
+    <row r="1160"/>
+    <row r="1161"/>
+    <row r="1162"/>
+    <row r="1163"/>
+    <row r="1164"/>
+    <row r="1165"/>
+    <row r="1166"/>
+    <row r="1167"/>
+    <row r="1168"/>
+    <row r="1169"/>
+    <row r="1170"/>
+    <row r="1171"/>
+    <row r="1172"/>
+    <row r="1173"/>
+    <row r="1174"/>
+    <row r="1175"/>
+    <row r="1176"/>
+    <row r="1177"/>
+    <row r="1178"/>
+    <row r="1179"/>
+    <row r="1180"/>
+    <row r="1181"/>
+    <row r="1182"/>
+    <row r="1183"/>
+    <row r="1184"/>
+    <row r="1185"/>
+    <row r="1186"/>
+    <row r="1187"/>
+    <row r="1188"/>
+    <row r="1189"/>
+    <row r="1190"/>
+    <row r="1191"/>
+    <row r="1192"/>
+    <row r="1193"/>
+    <row r="1194"/>
+    <row r="1195"/>
+    <row r="1196"/>
+    <row r="1197"/>
+    <row r="1198"/>
+    <row r="1199"/>
+    <row r="1200"/>
+    <row r="1201"/>
+    <row r="1202"/>
+    <row r="1203"/>
+    <row r="1204"/>
+    <row r="1205"/>
+    <row r="1206"/>
+    <row r="1207"/>
+    <row r="1208"/>
+    <row r="1209"/>
+    <row r="1210"/>
+    <row r="1211"/>
+    <row r="1212"/>
+    <row r="1213"/>
+    <row r="1214"/>
+    <row r="1215"/>
+    <row r="1216"/>
+    <row r="1217"/>
+    <row r="1218"/>
+    <row r="1219"/>
+    <row r="1220"/>
+    <row r="1221"/>
+    <row r="1222"/>
+    <row r="1223"/>
+    <row r="1224"/>
+    <row r="1225"/>
+    <row r="1226"/>
+    <row r="1227"/>
+    <row r="1228"/>
+    <row r="1229"/>
+    <row r="1230"/>
+    <row r="1231"/>
+    <row r="1232"/>
+    <row r="1233"/>
+    <row r="1234"/>
+    <row r="1235"/>
+    <row r="1236"/>
+    <row r="1237"/>
+    <row r="1238"/>
+    <row r="1239"/>
+    <row r="1240"/>
+    <row r="1241"/>
+    <row r="1242"/>
+    <row r="1243"/>
+    <row r="1244"/>
+    <row r="1245"/>
+    <row r="1246"/>
+    <row r="1247"/>
+    <row r="1248"/>
+    <row r="1249"/>
+    <row r="1250"/>
+    <row r="1251"/>
+    <row r="1252"/>
+    <row r="1253"/>
+    <row r="1254"/>
+    <row r="1255"/>
+    <row r="1256"/>
+    <row r="1257"/>
+    <row r="1258"/>
+    <row r="1259"/>
+    <row r="1260"/>
+    <row r="1261"/>
+    <row r="1262"/>
+    <row r="1263"/>
+    <row r="1264"/>
+    <row r="1265"/>
+    <row r="1266"/>
+    <row r="1267"/>
+    <row r="1268"/>
+    <row r="1269"/>
+    <row r="1270"/>
+    <row r="1271"/>
+    <row r="1272"/>
+    <row r="1273"/>
+    <row r="1274"/>
+    <row r="1275"/>
+    <row r="1276"/>
+    <row r="1277"/>
+    <row r="1278"/>
+    <row r="1279"/>
+    <row r="1280"/>
+    <row r="1281"/>
+    <row r="1282"/>
+    <row r="1283"/>
+    <row r="1284"/>
+    <row r="1285"/>
+    <row r="1286"/>
+    <row r="1287"/>
+    <row r="1288"/>
+    <row r="1289"/>
+    <row r="1290"/>
+    <row r="1291"/>
+    <row r="1292"/>
+    <row r="1293"/>
+    <row r="1294"/>
+    <row r="1295"/>
+    <row r="1296"/>
+    <row r="1297"/>
+    <row r="1298"/>
+    <row r="1299"/>
+    <row r="1300"/>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>存档名</t>
+        </is>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>存档1</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>存档2</t>
+        </is>
+      </c>
+      <c r="D1301" t="inlineStr">
+        <is>
+          <t>存档3</t>
+        </is>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>存档4</t>
+        </is>
+      </c>
+      <c r="F1301" t="inlineStr">
+        <is>
+          <t>存档5</t>
+        </is>
+      </c>
+      <c r="G1301" t="inlineStr">
+        <is>
+          <t>存档6</t>
+        </is>
+      </c>
+      <c r="H1301" t="inlineStr">
+        <is>
+          <t>存档7</t>
+        </is>
+      </c>
+      <c r="I1301" t="inlineStr">
+        <is>
+          <t>存档8</t>
+        </is>
+      </c>
+      <c r="J1301" t="inlineStr">
+        <is>
+          <t>存档9</t>
+        </is>
+      </c>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>存档10</t>
+        </is>
+      </c>
+      <c r="L1301" t="inlineStr">
+        <is>
+          <t>存档11</t>
+        </is>
+      </c>
+      <c r="M1301" t="inlineStr">
+        <is>
+          <t>存档12</t>
+        </is>
+      </c>
+      <c r="N1301" t="inlineStr">
+        <is>
+          <t>存档13</t>
+        </is>
+      </c>
+      <c r="O1301" t="inlineStr">
+        <is>
+          <t>存档14</t>
+        </is>
+      </c>
+      <c r="P1301" t="inlineStr">
+        <is>
+          <t>存档15</t>
+        </is>
+      </c>
+      <c r="Q1301" t="inlineStr">
+        <is>
+          <t>存档16</t>
+        </is>
+      </c>
+      <c r="R1301" t="inlineStr">
+        <is>
+          <t>存档17</t>
+        </is>
+      </c>
+      <c r="S1301" t="inlineStr">
+        <is>
+          <t>存档18</t>
+        </is>
+      </c>
+      <c r="T1301" t="inlineStr">
+        <is>
+          <t>存档19</t>
+        </is>
+      </c>
+      <c r="U1301" t="inlineStr">
+        <is>
+          <t>存档20</t>
+        </is>
+      </c>
+      <c r="V1301" t="inlineStr">
+        <is>
+          <t>存档21</t>
+        </is>
+      </c>
+      <c r="W1301" t="inlineStr">
+        <is>
+          <t>存档22</t>
+        </is>
+      </c>
+      <c r="X1301" t="inlineStr">
+        <is>
+          <t>存档23</t>
+        </is>
+      </c>
+      <c r="Y1301" t="inlineStr">
+        <is>
+          <t>存档24</t>
+        </is>
+      </c>
+      <c r="Z1301" t="inlineStr">
+        <is>
+          <t>存档25</t>
+        </is>
+      </c>
+      <c r="AA1301" t="inlineStr">
+        <is>
+          <t>存档26</t>
+        </is>
+      </c>
+      <c r="AB1301" t="inlineStr">
+        <is>
+          <t>存档27</t>
+        </is>
+      </c>
+      <c r="AC1301" t="inlineStr">
+        <is>
+          <t>存档28</t>
+        </is>
+      </c>
+      <c r="AD1301" t="inlineStr">
+        <is>
+          <t>存档29</t>
+        </is>
+      </c>
+      <c r="AE1301" t="inlineStr">
+        <is>
+          <t>存档30</t>
+        </is>
+      </c>
+      <c r="AF1301" t="inlineStr">
+        <is>
+          <t>存档31</t>
+        </is>
+      </c>
+      <c r="AG1301" t="inlineStr">
+        <is>
+          <t>存档32</t>
+        </is>
+      </c>
+      <c r="AH1301" t="inlineStr">
+        <is>
+          <t>存档33</t>
+        </is>
+      </c>
+      <c r="AI1301" t="inlineStr">
+        <is>
+          <t>存档34</t>
+        </is>
+      </c>
+      <c r="AJ1301" t="inlineStr">
+        <is>
+          <t>存档35</t>
+        </is>
+      </c>
+      <c r="AK1301" t="inlineStr">
+        <is>
+          <t>存档36</t>
+        </is>
+      </c>
+      <c r="AL1301" t="inlineStr">
+        <is>
+          <t>存档37</t>
+        </is>
+      </c>
+      <c r="AM1301" t="inlineStr">
+        <is>
+          <t>存档38</t>
+        </is>
+      </c>
+      <c r="AN1301" t="inlineStr">
+        <is>
+          <t>存档39</t>
+        </is>
+      </c>
+      <c r="AO1301" t="inlineStr">
+        <is>
+          <t>存档40</t>
+        </is>
+      </c>
+      <c r="AP1301" t="inlineStr">
+        <is>
+          <t>存档41</t>
+        </is>
+      </c>
+      <c r="AQ1301" t="inlineStr">
+        <is>
+          <t>存档42</t>
+        </is>
+      </c>
+      <c r="AR1301" t="inlineStr">
+        <is>
+          <t>存档43</t>
+        </is>
+      </c>
+      <c r="AS1301" t="inlineStr">
+        <is>
+          <t>存档44</t>
+        </is>
+      </c>
+      <c r="AT1301" t="inlineStr">
+        <is>
+          <t>存档45</t>
+        </is>
+      </c>
+      <c r="AU1301" t="inlineStr">
+        <is>
+          <t>存档46</t>
+        </is>
+      </c>
+      <c r="AV1301" t="inlineStr">
+        <is>
+          <t>存档47</t>
+        </is>
+      </c>
+      <c r="AW1301" t="inlineStr">
+        <is>
+          <t>存档48</t>
+        </is>
+      </c>
+      <c r="AX1301" t="inlineStr">
+        <is>
+          <t>存档49</t>
+        </is>
+      </c>
+      <c r="AY1301" t="inlineStr">
+        <is>
+          <t>存档50</t>
+        </is>
+      </c>
+      <c r="AZ1301" t="inlineStr">
+        <is>
+          <t>存档51</t>
+        </is>
+      </c>
+      <c r="BA1301" t="inlineStr">
+        <is>
+          <t>存档52</t>
+        </is>
+      </c>
+      <c r="BB1301" t="inlineStr">
+        <is>
+          <t>存档53</t>
+        </is>
+      </c>
+      <c r="BC1301" t="inlineStr">
+        <is>
+          <t>存档54</t>
+        </is>
+      </c>
+      <c r="BD1301" t="inlineStr">
+        <is>
+          <t>存档55</t>
+        </is>
+      </c>
+      <c r="BE1301" t="inlineStr">
+        <is>
+          <t>存档56</t>
+        </is>
+      </c>
+      <c r="BF1301" t="inlineStr">
+        <is>
+          <t>存档57</t>
+        </is>
+      </c>
+      <c r="BG1301" t="inlineStr">
+        <is>
+          <t>存档58</t>
+        </is>
+      </c>
+      <c r="BH1301" t="inlineStr">
+        <is>
+          <t>存档59</t>
+        </is>
+      </c>
+      <c r="BI1301" t="inlineStr">
+        <is>
+          <t>存档60</t>
+        </is>
+      </c>
+      <c r="BJ1301" t="inlineStr">
+        <is>
+          <t>存档61</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>武器</t>
+        </is>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="D1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="F1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="G1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="H1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="I1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="J1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>选择武器</t>
+        </is>
+      </c>
+      <c r="L1302" t="inlineStr"/>
+      <c r="M1302" t="inlineStr"/>
+      <c r="N1302" t="inlineStr"/>
+      <c r="O1302" t="inlineStr"/>
+      <c r="P1302" t="inlineStr"/>
+      <c r="Q1302" t="inlineStr"/>
+      <c r="R1302" t="inlineStr"/>
+      <c r="S1302" t="inlineStr"/>
+      <c r="T1302" t="inlineStr"/>
+      <c r="U1302" t="inlineStr"/>
+      <c r="V1302" t="inlineStr"/>
+      <c r="W1302" t="inlineStr"/>
+      <c r="X1302" t="inlineStr"/>
+      <c r="Y1302" t="inlineStr"/>
+      <c r="Z1302" t="inlineStr"/>
+      <c r="AA1302" t="inlineStr"/>
+      <c r="AB1302" t="inlineStr"/>
+      <c r="AC1302" t="inlineStr"/>
+      <c r="AD1302" t="inlineStr"/>
+      <c r="AE1302" t="inlineStr"/>
+      <c r="AF1302" t="inlineStr"/>
+      <c r="AG1302" t="inlineStr"/>
+      <c r="AH1302" t="inlineStr"/>
+      <c r="AI1302" t="inlineStr"/>
+      <c r="AJ1302" t="inlineStr"/>
+      <c r="AK1302" t="inlineStr"/>
+      <c r="AL1302" t="inlineStr"/>
+      <c r="AM1302" t="inlineStr"/>
+      <c r="AN1302" t="inlineStr"/>
+      <c r="AO1302" t="inlineStr"/>
+      <c r="AP1302" t="inlineStr"/>
+      <c r="AQ1302" t="inlineStr"/>
+      <c r="AR1302" t="inlineStr"/>
+      <c r="AS1302" t="inlineStr"/>
+      <c r="AT1302" t="inlineStr"/>
+      <c r="AU1302" t="inlineStr"/>
+      <c r="AV1302" t="inlineStr"/>
+      <c r="AW1302" t="inlineStr"/>
+      <c r="AX1302" t="inlineStr"/>
+      <c r="AY1302" t="inlineStr"/>
+      <c r="AZ1302" t="inlineStr"/>
+      <c r="BA1302" t="inlineStr"/>
+      <c r="BB1302" t="inlineStr"/>
+      <c r="BC1302" t="inlineStr"/>
+      <c r="BD1302" t="inlineStr"/>
+      <c r="BE1302" t="inlineStr"/>
+      <c r="BF1302" t="inlineStr"/>
+      <c r="BG1302" t="inlineStr"/>
+      <c r="BH1302" t="inlineStr"/>
+      <c r="BI1302" t="inlineStr"/>
+      <c r="BJ1302" t="inlineStr"/>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="D1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="F1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="G1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="H1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="I1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="J1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="L1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="M1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="N1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="O1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="P1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="Q1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="R1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="S1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="T1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="U1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="V1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="W1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="X1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="Y1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="Z1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AA1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AB1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AC1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AD1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AE1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AF1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AG1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AH1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AI1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AJ1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AK1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AL1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AM1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AN1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AO1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AP1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AQ1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AR1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AS1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AT1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AU1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AV1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AW1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AX1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AY1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="AZ1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BA1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BB1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BC1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BD1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BE1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BF1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BG1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BH1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BI1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+      <c r="BJ1303" t="inlineStr">
+        <is>
+          <t>职业选择</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>输出时间</t>
+        </is>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="D1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="F1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="G1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="H1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="I1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="J1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="L1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="M1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="N1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="O1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="P1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="Q1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="R1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="S1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="T1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="U1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="V1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="W1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="X1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="Y1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="Z1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AA1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AB1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AC1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AD1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AE1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AF1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AG1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AH1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AI1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AJ1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AK1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AL1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AM1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AN1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AO1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AP1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AQ1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AR1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AS1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AT1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AU1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AV1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AW1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AX1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AY1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="AZ1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BA1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BB1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BC1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BD1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BE1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BF1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BG1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BH1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BI1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+      <c r="BJ1304" t="inlineStr">
+        <is>
+          <t>20秒(觉醒占比↑)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>称号选择</t>
+        </is>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="D1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="F1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="G1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="H1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="I1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="J1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="L1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="M1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="N1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="O1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="P1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="Q1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="R1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="S1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="T1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="U1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="V1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="W1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="X1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="Y1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="Z1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AA1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AB1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AC1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AD1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AE1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AF1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AG1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AH1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AI1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AJ1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AK1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AL1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AM1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AN1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AO1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AP1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AQ1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AR1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AS1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AT1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AU1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AV1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AW1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AX1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AY1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="AZ1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BA1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BB1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BC1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BD1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BE1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BF1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BG1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BH1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BI1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+      <c r="BJ1305" t="inlineStr">
+        <is>
+          <t>使徒降临</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>宠物选择</t>
+        </is>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="D1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="F1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="G1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="H1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="I1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="J1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="L1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="M1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="N1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="O1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="P1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="Q1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="R1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="S1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="T1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="U1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="V1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="W1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="X1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="Y1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="Z1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AA1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AB1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AC1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AD1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AE1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AF1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AG1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AH1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AI1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AJ1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AK1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AL1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AM1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AN1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AO1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AP1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AQ1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AR1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AS1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AT1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AU1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AV1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AW1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AX1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AY1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="AZ1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BA1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BB1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BC1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BD1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BE1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BF1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BG1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BH1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BI1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+      <c r="BJ1306" t="inlineStr">
+        <is>
+          <t>弓手维多利亚</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>冷却补正</t>
+        </is>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="F1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="G1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="H1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="I1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="J1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="L1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="M1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="N1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="O1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="P1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="Q1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="R1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="S1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="T1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="U1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="V1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="W1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="X1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="Y1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="Z1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AA1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AB1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AC1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AD1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AE1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AF1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AG1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AH1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AI1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AJ1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AK1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AL1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AM1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AN1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AO1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AP1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AQ1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AR1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AS1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AT1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AU1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AV1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AW1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AX1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AY1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="AZ1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BA1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BB1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BC1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BD1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BE1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BF1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BG1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BH1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BI1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+      <c r="BJ1307" t="inlineStr">
+        <is>
+          <t>X(纯伤害)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>选择速度</t>
+        </is>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="D1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="F1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="G1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="H1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="I1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="J1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="L1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="M1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="N1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="O1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="P1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="Q1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="R1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="S1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="T1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="U1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="V1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="W1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="X1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="Y1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="Z1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AA1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AB1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AC1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AD1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AE1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AF1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AG1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AH1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AI1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AJ1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AK1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AL1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AM1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AN1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AO1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AP1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AQ1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AR1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AS1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AT1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AU1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AV1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AW1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AX1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AY1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="AZ1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BA1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BB1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BC1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BD1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BE1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BF1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BG1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BH1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BI1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+      <c r="BJ1308" t="inlineStr">
+        <is>
+          <t>中速</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>是否拥有百变怪</t>
+        </is>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="D1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="F1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="I1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="J1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="L1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="M1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="N1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="O1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="P1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="Q1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="R1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="S1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="T1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="U1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="V1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="W1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="X1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="Y1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="Z1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AA1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AB1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AC1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AD1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AE1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AF1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AG1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AH1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AI1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AJ1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AK1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AL1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AM1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AN1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AO1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AP1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AQ1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AR1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AS1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AT1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AU1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AV1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AW1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AX1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AY1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="AZ1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BA1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BB1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BC1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BD1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BE1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BF1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BG1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BH1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BI1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+      <c r="BJ1309" t="inlineStr">
+        <is>
+          <t>No(没有百变怪)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>材料够升级的工作服数目</t>
+        </is>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="F1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="I1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="J1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="L1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="M1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="N1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="O1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="P1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="Q1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="R1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="S1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="T1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="U1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="V1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="W1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="X1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="Y1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="Z1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AA1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AB1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AC1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AD1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AE1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AF1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AG1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AH1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AI1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AJ1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AK1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AL1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AM1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AN1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AO1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AP1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AQ1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AR1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AS1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AT1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AU1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AV1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AW1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AX1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AY1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="AZ1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BA1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BB1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BC1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BD1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BE1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BF1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BG1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BH1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BI1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+      <c r="BJ1310" t="inlineStr">
+        <is>
+          <t>材料够升级零件</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>跨界来源账户列表</t>
+        </is>
+      </c>
+      <c r="B1311" t="inlineStr"/>
+      <c r="C1311" t="inlineStr"/>
+      <c r="D1311" t="inlineStr"/>
+      <c r="E1311" t="inlineStr"/>
+      <c r="F1311" t="inlineStr"/>
+      <c r="G1311" t="inlineStr"/>
+      <c r="H1311" t="inlineStr"/>
+      <c r="I1311" t="inlineStr"/>
+      <c r="J1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr"/>
+      <c r="L1311" t="inlineStr"/>
+      <c r="M1311" t="inlineStr"/>
+      <c r="N1311" t="inlineStr"/>
+      <c r="O1311" t="inlineStr"/>
+      <c r="P1311" t="inlineStr"/>
+      <c r="Q1311" t="inlineStr"/>
+      <c r="R1311" t="inlineStr"/>
+      <c r="S1311" t="inlineStr"/>
+      <c r="T1311" t="inlineStr"/>
+      <c r="U1311" t="inlineStr"/>
+      <c r="V1311" t="inlineStr"/>
+      <c r="W1311" t="inlineStr"/>
+      <c r="X1311" t="inlineStr"/>
+      <c r="Y1311" t="inlineStr"/>
+      <c r="Z1311" t="inlineStr"/>
+      <c r="AA1311" t="inlineStr"/>
+      <c r="AB1311" t="inlineStr"/>
+      <c r="AC1311" t="inlineStr"/>
+      <c r="AD1311" t="inlineStr"/>
+      <c r="AE1311" t="inlineStr"/>
+      <c r="AF1311" t="inlineStr"/>
+      <c r="AG1311" t="inlineStr"/>
+      <c r="AH1311" t="inlineStr"/>
+      <c r="AI1311" t="inlineStr"/>
+      <c r="AJ1311" t="inlineStr"/>
+      <c r="AK1311" t="inlineStr"/>
+      <c r="AL1311" t="inlineStr"/>
+      <c r="AM1311" t="inlineStr"/>
+      <c r="AN1311" t="inlineStr"/>
+      <c r="AO1311" t="inlineStr"/>
+      <c r="AP1311" t="inlineStr"/>
+      <c r="AQ1311" t="inlineStr"/>
+      <c r="AR1311" t="inlineStr"/>
+      <c r="AS1311" t="inlineStr"/>
+      <c r="AT1311" t="inlineStr"/>
+      <c r="AU1311" t="inlineStr"/>
+      <c r="AV1311" t="inlineStr"/>
+      <c r="AW1311" t="inlineStr"/>
+      <c r="AX1311" t="inlineStr"/>
+      <c r="AY1311" t="inlineStr"/>
+      <c r="AZ1311" t="inlineStr"/>
+      <c r="BA1311" t="inlineStr"/>
+      <c r="BB1311" t="inlineStr"/>
+      <c r="BC1311" t="inlineStr"/>
+      <c r="BD1311" t="inlineStr"/>
+      <c r="BE1311" t="inlineStr"/>
+      <c r="BF1311" t="inlineStr"/>
+      <c r="BG1311" t="inlineStr"/>
+      <c r="BH1311" t="inlineStr"/>
+      <c r="BI1311" t="inlineStr"/>
+      <c r="BJ1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>最大跨界数目</t>
+        </is>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ1312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
           <t>是否默认将普雷传说装备加入备选池</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr">
+      <c r="D1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
       </c>
-      <c r="E313" t="inlineStr">
+      <c r="E1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
+      <c r="F1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
+      <c r="G1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
+      <c r="H1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
       </c>
-      <c r="I313" t="inlineStr">
+      <c r="I1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
       </c>
-      <c r="J313" t="inlineStr">
+      <c r="J1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
       </c>
-      <c r="K313" t="inlineStr">
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="L1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="M1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="N1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="O1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="P1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="Q1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="R1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="S1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="T1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="U1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="V1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="W1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="X1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="Y1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="Z1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AA1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AB1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AC1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AD1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AE1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AF1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AG1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AH1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AI1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AJ1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AK1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AL1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AM1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AN1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AO1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AP1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AQ1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AR1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AS1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AT1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AU1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AV1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AW1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AX1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AY1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="AZ1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BA1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BB1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BC1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BD1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BE1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BF1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BG1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BH1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BI1313" t="inlineStr">
+        <is>
+          <t>不加入备选池</t>
+        </is>
+      </c>
+      <c r="BJ1313" t="inlineStr">
         <is>
           <t>不加入备选池</t>
         </is>
@@ -12890,11 +18011,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:L256">
-    <cfRule dxfId="0" operator="containsText" priority="1" text="1" type="containsText">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="1">
       <formula>NOT(ISERROR(SEARCH("1",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>